--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFC6760-9469-4033-BB52-6F7220B5459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5364" windowHeight="3192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -603,19 +604,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -763,10 +764,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23588,7 +23589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23597,7 +23598,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23663,7 +23664,7 @@
     </row>
     <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -23742,7 +23743,7 @@
     </row>
     <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -24007,10 +24008,10 @@
         <v>288280.8171307767</v>
       </c>
       <c r="V12" s="20">
-        <v>146333.84800044395</v>
+        <v>146775.79935263871</v>
       </c>
       <c r="W12" s="20">
-        <v>156712.11038617752</v>
+        <v>156625.27793907956</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -24151,10 +24152,10 @@
         <v>162148.28969905881</v>
       </c>
       <c r="V13" s="20">
-        <v>125386.07890019548</v>
+        <v>125181.51096433375</v>
       </c>
       <c r="W13" s="20">
-        <v>124329.89515486744</v>
+        <v>124384.8685969763</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -24393,10 +24394,10 @@
         <v>450429.10682983551</v>
       </c>
       <c r="V15" s="21">
-        <v>271719.92690063943</v>
+        <v>271957.31031697243</v>
       </c>
       <c r="W15" s="21">
-        <v>281042.00554104499</v>
+        <v>281010.14653605584</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -24776,7 +24777,7 @@
     </row>
     <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -24855,7 +24856,7 @@
     </row>
     <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -25120,10 +25121,10 @@
         <v>278105.93270697887</v>
       </c>
       <c r="V31" s="20">
-        <v>140719.06885811655</v>
+        <v>141144.32913503263</v>
       </c>
       <c r="W31" s="20">
-        <v>151101.98224666441</v>
+        <v>151017.66631911049</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -25264,10 +25265,10 @@
         <v>160584.66453812557</v>
       </c>
       <c r="V32" s="20">
-        <v>117804.10901567868</v>
+        <v>117613.85228466717</v>
       </c>
       <c r="W32" s="20">
-        <v>112793.6877426898</v>
+        <v>112832.8859236993</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -25506,10 +25507,10 @@
         <v>438690.59724510444</v>
       </c>
       <c r="V34" s="21">
-        <v>258523.17787379521</v>
+        <v>258758.1814196998</v>
       </c>
       <c r="W34" s="21">
-        <v>263895.66998935421</v>
+        <v>263850.55224280979</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -25889,7 +25890,7 @@
     </row>
     <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -25968,7 +25969,7 @@
     </row>
     <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -26228,10 +26229,10 @@
         <v>11.384950284741961</v>
       </c>
       <c r="U50" s="27">
-        <v>-49.239130977604887</v>
+        <v>-49.085825129302705</v>
       </c>
       <c r="V50" s="27">
-        <v>7.0921816979090835</v>
+        <v>6.7105603443363435</v>
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="4"/>
@@ -26365,10 +26366,10 @@
         <v>6.529242534055669</v>
       </c>
       <c r="U51" s="27">
-        <v>-22.671969508338705</v>
+        <v>-22.798130528132006</v>
       </c>
       <c r="V51" s="27">
-        <v>-0.8423453022793268</v>
+        <v>-0.63638980007551993</v>
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="4"/>
@@ -26595,10 +26596,10 @@
         <v>9.5867923187563377</v>
       </c>
       <c r="U53" s="27">
-        <v>-39.675317873431602</v>
+        <v>-39.622616257853579</v>
       </c>
       <c r="V53" s="27">
-        <v>3.4307673885892029</v>
+        <v>3.3287710517993219</v>
       </c>
       <c r="W53" s="27"/>
       <c r="X53" s="4"/>
@@ -26964,7 +26965,7 @@
     </row>
     <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -27043,7 +27044,7 @@
     </row>
     <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -27303,10 +27304,10 @@
         <v>7.4536134480505751</v>
       </c>
       <c r="U69" s="27">
-        <v>-49.400910836957024</v>
+        <v>-49.247997782288685</v>
       </c>
       <c r="V69" s="27">
-        <v>7.3784693665196954</v>
+        <v>6.9952064277637618</v>
       </c>
       <c r="W69" s="27"/>
       <c r="X69" s="4"/>
@@ -27440,10 +27441,10 @@
         <v>5.5019618620821404</v>
       </c>
       <c r="U70" s="27">
-        <v>-26.640498733482758</v>
+        <v>-26.758976255330026</v>
       </c>
       <c r="V70" s="27">
-        <v>-4.2531803982508336</v>
+        <v>-4.0649687669410213</v>
       </c>
       <c r="W70" s="27"/>
       <c r="X70" s="4"/>
@@ -27670,10 +27671,10 @@
         <v>6.7308809389448498</v>
       </c>
       <c r="U72" s="27">
-        <v>-41.069359704248775</v>
+        <v>-41.015790389706744</v>
       </c>
       <c r="V72" s="27">
-        <v>2.0781471741700983</v>
+        <v>1.9680037922550753</v>
       </c>
       <c r="W72" s="27"/>
       <c r="X72" s="4"/>
@@ -28018,7 +28019,7 @@
     </row>
     <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -28097,7 +28098,7 @@
     </row>
     <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -28362,10 +28363,10 @@
         <v>103.65863623431521</v>
       </c>
       <c r="V87" s="27">
-        <v>103.99006274550369</v>
+        <v>103.98986643821762</v>
       </c>
       <c r="W87" s="27">
-        <v>103.7128090949561</v>
+        <v>103.71321564996232</v>
       </c>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
@@ -28506,10 +28507,10 @@
         <v>100.97370764850464</v>
       </c>
       <c r="V88" s="27">
-        <v>106.43608270362431</v>
+        <v>106.43432600213636</v>
       </c>
       <c r="W88" s="27">
-        <v>110.22770657033094</v>
+        <v>110.2381345462428</v>
       </c>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
@@ -28748,10 +28749,10 @@
         <v>102.67580605977122</v>
       </c>
       <c r="V90" s="27">
-        <v>105.1046676492916</v>
+        <v>105.10095133025533</v>
       </c>
       <c r="W90" s="27">
-        <v>106.49739177318918</v>
+        <v>106.50352790524191</v>
       </c>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
@@ -28985,7 +28986,7 @@
     </row>
     <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -29064,7 +29065,7 @@
     </row>
     <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -29329,10 +29330,10 @@
         <v>64.001373969751981</v>
       </c>
       <c r="V106" s="27">
-        <v>53.854661919570681</v>
+        <v>53.970161413042426</v>
       </c>
       <c r="W106" s="27">
-        <v>55.761098802467224</v>
+        <v>55.736520502822231</v>
       </c>
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
@@ -29473,10 +29474,10 @@
         <v>35.998626030248019</v>
       </c>
       <c r="V107" s="27">
-        <v>46.145338080429319</v>
+        <v>46.029838586957581</v>
       </c>
       <c r="W107" s="27">
-        <v>44.238901197532762</v>
+        <v>44.263479497177777</v>
       </c>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
@@ -30098,7 +30099,7 @@
     </row>
     <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -30177,7 +30178,7 @@
     </row>
     <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -30442,10 +30443,10 @@
         <v>63.39455061344659</v>
       </c>
       <c r="V125" s="27">
-        <v>54.431896596448382</v>
+        <v>54.546808282788085</v>
       </c>
       <c r="W125" s="27">
-        <v>57.258227182264875</v>
+        <v>57.236062246379426</v>
       </c>
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
@@ -30586,10 +30587,10 @@
         <v>36.60544938655341</v>
       </c>
       <c r="V126" s="27">
-        <v>45.568103403551618</v>
+        <v>45.453191717211915</v>
       </c>
       <c r="W126" s="27">
-        <v>42.741772817735132</v>
+        <v>42.763937753620567</v>
       </c>
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFC6760-9469-4033-BB52-6F7220B5459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77063B-B267-4962-BA4C-42A1B04F3A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="5565" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$W$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$X$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -604,13 +604,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -618,9 +621,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -714,9 +717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -725,7 +728,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,29 +741,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -783,7 +778,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15150,7 +15145,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -15264,7 +15259,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15973,7 +15968,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15996,7 +15991,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16025,7 +16020,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16088,7 +16083,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16117,7 +16112,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16148,7 +16143,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18542,7 +18537,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18630,7 +18625,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18651,7 +18646,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18668,7 +18663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18725,7 +18720,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18766,7 +18761,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18779,7 +18774,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18792,7 +18787,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18839,7 +18834,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18868,7 +18863,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23285,7 +23280,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23596,424 +23591,278 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.21875" style="2" customWidth="1"/>
-    <col min="2" max="23" width="11" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="9.5546875" style="1"/>
+    <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
+    <col min="2" max="24" width="11" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
     </row>
-    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
     </row>
-    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
     </row>
-    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2002</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2005</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2006</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2007</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2008</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2009</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2010</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2011</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2012</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2013</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>2015</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2016</v>
+      </c>
+      <c r="S10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U10" s="9">
+        <v>2019</v>
+      </c>
+      <c r="V10" s="9">
+        <v>2020</v>
+      </c>
+      <c r="W10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
     </row>
-    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2000</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2001</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2002</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2003</v>
-      </c>
-      <c r="F10" s="19">
-        <v>2004</v>
-      </c>
-      <c r="G10" s="19">
-        <v>2005</v>
-      </c>
-      <c r="H10" s="19">
-        <v>2006</v>
-      </c>
-      <c r="I10" s="19">
-        <v>2007</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2008</v>
-      </c>
-      <c r="K10" s="19">
-        <v>2009</v>
-      </c>
-      <c r="L10" s="19">
-        <v>2010</v>
-      </c>
-      <c r="M10" s="19">
-        <v>2011</v>
-      </c>
-      <c r="N10" s="19">
-        <v>2012</v>
-      </c>
-      <c r="O10" s="19">
-        <v>2013</v>
-      </c>
-      <c r="P10" s="19">
-        <v>2014</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>2015</v>
-      </c>
-      <c r="R10" s="19">
-        <v>2016</v>
-      </c>
-      <c r="S10" s="19">
-        <v>2017</v>
-      </c>
-      <c r="T10" s="19">
-        <v>2018</v>
-      </c>
-      <c r="U10" s="19">
-        <v>2019</v>
-      </c>
-      <c r="V10" s="19">
-        <v>2020</v>
-      </c>
-      <c r="W10" s="19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>36917.200441335706</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>41328.055356289413</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>45770.240877714998</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>51079.947314529389</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>60058.427756003875</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="16">
         <v>66214.86361423241</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="16">
         <v>74228.874978136082</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <v>86819.36885968651</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="16">
         <v>95117.430205113487</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="16">
         <v>110593.22887340878</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="16">
         <v>148119.02929244525</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="16">
         <v>160247.96172074671</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="16">
         <v>192325.72261212219</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="16">
         <v>209388.12099344481</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="16">
         <v>208321.92733243766</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="16">
         <v>234820.89448808529</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="16">
         <v>247473.94540772634</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="16">
         <v>250276.96535652925</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="16">
         <v>258814.87256027153</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="16">
         <v>288280.8171307767</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="16">
         <v>146775.79935263871</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="16">
         <v>156625.27793907956</v>
       </c>
-      <c r="X12" s="4"/>
+      <c r="X12" s="16">
+        <v>216223.08642473246</v>
+      </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
@@ -24087,77 +23936,79 @@
       <c r="CQ12" s="4"/>
       <c r="CR12" s="4"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <v>35718.759249978873</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>37116.678319718922</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>38281.824930460556</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>40634.533418761392</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>44501.109490520532</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="16">
         <v>45483.857929441838</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="16">
         <v>48032.970160767036</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="16">
         <v>51620.766329398262</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="16">
         <v>56346.440113501405</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="16">
         <v>60695.404771389905</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="16">
         <v>65523.934049031013</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="16">
         <v>71071.992582008956</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="16">
         <v>87204.962663169528</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="16">
         <v>101323.74507491472</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="16">
         <v>110200.68696092934</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="16">
         <v>116113.23093441772</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="16">
         <v>126871.00577816386</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="16">
         <v>138402.39808309195</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="16">
         <v>152210.12169238192</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="16">
         <v>162148.28969905881</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="16">
         <v>125181.51096433375</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="16">
         <v>124384.8685969763</v>
       </c>
-      <c r="X13" s="4"/>
+      <c r="X13" s="16">
+        <v>148900.92439380832</v>
+      </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -24231,31 +24082,31 @@
       <c r="CQ13" s="4"/>
       <c r="CR13" s="4"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="4"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
@@ -24329,77 +24180,79 @@
       <c r="CQ14" s="4"/>
       <c r="CR14" s="4"/>
     </row>
-    <row r="15" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>72635.95969131458</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>78444.733676008327</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>84052.065808175554</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>91714.48073329078</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <v>104559.53724652441</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <v>111698.72154367424</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>122261.84513890313</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <v>138440.13518908477</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="17">
         <v>151463.87031861488</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="17">
         <v>171288.63364479868</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="17">
         <v>213642.96334147628</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="17">
         <v>231319.95430275565</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="17">
         <v>279530.68527529173</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="17">
         <v>310711.86606835952</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="17">
         <v>318522.61429336702</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="17">
         <v>350934.12542250298</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="17">
         <v>374344.95118589018</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="17">
         <v>388679.36343962117</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="17">
         <v>411024.99425265344</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="17">
         <v>450429.10682983551</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="17">
         <v>271957.31031697243</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="17">
         <v>281010.14653605584</v>
       </c>
-      <c r="X15" s="4"/>
+      <c r="X15" s="17">
+        <v>365124.01081854082</v>
+      </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -24473,83 +24326,85 @@
       <c r="CQ15" s="4"/>
       <c r="CR15" s="4"/>
     </row>
-    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
+    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="4"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
@@ -24623,31 +24478,31 @@
       <c r="CQ18" s="4"/>
       <c r="CR18" s="4"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="4"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -24721,412 +24576,427 @@
       <c r="CQ19" s="4"/>
       <c r="CR19" s="4"/>
     </row>
-    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
     </row>
-    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
     </row>
-    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
     </row>
-    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
+    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
     </row>
-    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="19">
+        <v>2001</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2002</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F29" s="19">
+        <v>2004</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2005</v>
+      </c>
+      <c r="H29" s="19">
+        <v>2006</v>
+      </c>
+      <c r="I29" s="19">
+        <v>2007</v>
+      </c>
+      <c r="J29" s="19">
+        <v>2008</v>
+      </c>
+      <c r="K29" s="19">
+        <v>2009</v>
+      </c>
+      <c r="L29" s="19">
+        <v>2010</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2011</v>
+      </c>
+      <c r="N29" s="19">
+        <v>2012</v>
+      </c>
+      <c r="O29" s="19">
+        <v>2013</v>
+      </c>
+      <c r="P29" s="19">
+        <v>2014</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>2015</v>
+      </c>
+      <c r="R29" s="19">
+        <v>2016</v>
+      </c>
+      <c r="S29" s="19">
+        <v>2017</v>
+      </c>
+      <c r="T29" s="19">
+        <v>2018</v>
+      </c>
+      <c r="U29" s="19">
+        <v>2019</v>
+      </c>
+      <c r="V29" s="19">
+        <v>2020</v>
+      </c>
+      <c r="W29" s="19">
+        <v>2021</v>
+      </c>
+      <c r="X29" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
+    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
     </row>
-    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-    </row>
-    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="24">
-        <v>2000</v>
-      </c>
-      <c r="C29" s="24">
-        <v>2001</v>
-      </c>
-      <c r="D29" s="24">
-        <v>2002</v>
-      </c>
-      <c r="E29" s="24">
-        <v>2003</v>
-      </c>
-      <c r="F29" s="24">
-        <v>2004</v>
-      </c>
-      <c r="G29" s="24">
-        <v>2005</v>
-      </c>
-      <c r="H29" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I29" s="24">
-        <v>2007</v>
-      </c>
-      <c r="J29" s="24">
-        <v>2008</v>
-      </c>
-      <c r="K29" s="24">
-        <v>2009</v>
-      </c>
-      <c r="L29" s="24">
-        <v>2010</v>
-      </c>
-      <c r="M29" s="24">
-        <v>2011</v>
-      </c>
-      <c r="N29" s="24">
-        <v>2012</v>
-      </c>
-      <c r="O29" s="24">
-        <v>2013</v>
-      </c>
-      <c r="P29" s="24">
-        <v>2014</v>
-      </c>
-      <c r="Q29" s="24">
-        <v>2015</v>
-      </c>
-      <c r="R29" s="24">
-        <v>2016</v>
-      </c>
-      <c r="S29" s="24">
-        <v>2017</v>
-      </c>
-      <c r="T29" s="24">
-        <v>2018</v>
-      </c>
-      <c r="U29" s="24">
-        <v>2019</v>
-      </c>
-      <c r="V29" s="24">
-        <v>2020</v>
-      </c>
-      <c r="W29" s="24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-    </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="16">
         <v>68860.917278988796</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>73633.549920096601</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>77942.522883686848</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <v>81966.336118294566</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="16">
         <v>91929.601177599165</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="16">
         <v>94971.904290698876</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="16">
         <v>100137.31152170007</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="16">
         <v>111071.73862993903</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="16">
         <v>115349.76449120496</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="16">
         <v>126730.5377383178</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="16">
         <v>164453.00422242336</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="16">
         <v>173449.92363243861</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="16">
         <v>201369.54824818298</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="16">
         <v>213276.57007018712</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="16">
         <v>210553.30613529135</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="16">
         <v>235584.27535644587</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="16">
         <v>251268.63746447273</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="16">
         <v>250268.18325379959</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T31" s="16">
         <v>258814.87256027153</v>
       </c>
-      <c r="U31" s="20">
+      <c r="U31" s="16">
         <v>278105.93270697887</v>
       </c>
-      <c r="V31" s="20">
+      <c r="V31" s="16">
         <v>141144.32913503263</v>
       </c>
-      <c r="W31" s="20">
+      <c r="W31" s="16">
         <v>151017.66631911049</v>
       </c>
-      <c r="X31" s="4"/>
+      <c r="X31" s="16">
+        <v>205168.01225227909</v>
+      </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
@@ -25200,77 +25070,79 @@
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="16">
         <v>69797.977615839278</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>69578.243752469483</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="16">
         <v>67640.190530842927</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>65318.779838183698</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="16">
         <v>70223.276740781614</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="16">
         <v>69848.084500702025</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="16">
         <v>73611.030781080772</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="16">
         <v>77597.62452077934</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="16">
         <v>81640.742888348308</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="16">
         <v>85357.100607238433</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="16">
         <v>89101.704147958633</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="16">
         <v>91889.160788977068</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="16">
         <v>106417.82699261658</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="16">
         <v>110371.11840995456</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="16">
         <v>115964.9372990991</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="16">
         <v>123606.06919802446</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="16">
         <v>133321.72529194798</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="16">
         <v>142964.67982855823</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T32" s="16">
         <v>152210.12169238192</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="16">
         <v>160584.66453812557</v>
       </c>
-      <c r="V32" s="20">
+      <c r="V32" s="16">
         <v>117613.85228466717</v>
       </c>
-      <c r="W32" s="20">
+      <c r="W32" s="16">
         <v>112832.8859236993</v>
       </c>
-      <c r="X32" s="4"/>
+      <c r="X32" s="16">
+        <v>133371.27166190947</v>
+      </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
@@ -25344,31 +25216,31 @@
       <c r="CQ32" s="4"/>
       <c r="CR32" s="4"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="4"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -25442,77 +25314,79 @@
       <c r="CQ33" s="4"/>
       <c r="CR33" s="4"/>
     </row>
-    <row r="34" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="17">
         <v>138658.89489482809</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>143211.79367256607</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>145582.71341452978</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>147285.11595647826</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="17">
         <v>162152.87791838078</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="17">
         <v>164819.98879140092</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>173748.34230278083</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="17">
         <v>188669.36315071839</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="17">
         <v>196990.50737955328</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="17">
         <v>212087.63834555622</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="17">
         <v>253554.708370382</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="17">
         <v>265339.0844214157</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="17">
         <v>307787.37524079956</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="17">
         <v>323647.68848014169</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="17">
         <v>326518.24343439046</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="17">
         <v>359190.34455447033</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="17">
         <v>384590.36275642074</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="17">
         <v>393232.8630823578</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="17">
         <v>411024.99425265344</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="17">
         <v>438690.59724510444</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="17">
         <v>258758.1814196998</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34" s="17">
         <v>263850.55224280979</v>
       </c>
-      <c r="X34" s="4"/>
+      <c r="X34" s="17">
+        <v>338539.28391418856</v>
+      </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -25586,83 +25460,85 @@
       <c r="CQ34" s="4"/>
       <c r="CR34" s="4"/>
     </row>
-    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
+    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="4"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
@@ -25736,31 +25612,31 @@
       <c r="CQ37" s="4"/>
       <c r="CR37" s="4"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="4"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
@@ -25834,408 +25710,423 @@
       <c r="CQ38" s="4"/>
       <c r="CR38" s="4"/>
     </row>
-    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
+    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
+    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
+    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="25" t="s">
+    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
     </row>
-    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="26" t="s">
+      <c r="K48" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="26" t="s">
+      <c r="L48" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="26" t="s">
+      <c r="N48" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="26" t="s">
+      <c r="O48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="26" t="s">
+      <c r="P48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="26" t="s">
+      <c r="Q48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="26" t="s">
+      <c r="R48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="26" t="s">
+      <c r="S48" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T48" s="26" t="s">
+      <c r="T48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="U48" s="26" t="s">
+      <c r="U48" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V48" s="26" t="s">
+      <c r="V48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="26"/>
+      <c r="W48" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X48" s="21"/>
     </row>
-    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
+    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="22">
         <v>11.947966969930164</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="22">
         <v>10.748595556044123</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="22">
         <v>11.600783249099365</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="22">
         <v>17.57730951872108</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="22">
         <v>10.250744297269904</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="22">
         <v>12.103039901423458</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="22">
         <v>16.961719930766733</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="22">
         <v>9.5578457369782654</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="22">
         <v>16.270202669398131</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="22">
         <v>33.931372473074816</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="22">
         <v>8.1886388847135692</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="22">
         <v>20.01757810016656</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="22">
         <v>8.871615377072402</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="22">
         <v>-0.50919491323031707</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="22">
         <v>12.72020065048693</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q50" s="22">
         <v>5.3883837497616867</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="22">
         <v>1.1326525482045326</v>
       </c>
-      <c r="S50" s="27">
+      <c r="S50" s="22">
         <v>3.4113835412618414</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="22">
         <v>11.384950284741961</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="22">
         <v>-49.085825129302705</v>
       </c>
-      <c r="V50" s="27">
+      <c r="V50" s="22">
         <v>6.7105603443363435</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="4"/>
+      <c r="W50" s="22">
+        <v>38.05120684851002</v>
+      </c>
+      <c r="X50" s="22"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
@@ -26304,75 +26195,77 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="4"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="22">
         <v>3.913683171234112</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="22">
         <v>3.1391456980745573</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="22">
         <v>6.1457584443128468</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="22">
         <v>9.515492726130077</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="22">
         <v>2.2083683983893536</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="22">
         <v>5.6044327534387861</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="22">
         <v>7.4694447514338975</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="22">
         <v>9.154598275329846</v>
       </c>
-      <c r="J51" s="27">
+      <c r="J51" s="22">
         <v>7.718259838825972</v>
       </c>
-      <c r="K51" s="27">
+      <c r="K51" s="22">
         <v>7.9553457066936772</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="22">
         <v>8.4672244020427314</v>
       </c>
-      <c r="M51" s="27">
+      <c r="M51" s="22">
         <v>22.699476256480324</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N51" s="22">
         <v>16.190342820602083</v>
       </c>
-      <c r="O51" s="27">
+      <c r="O51" s="22">
         <v>8.7609689904882089</v>
       </c>
-      <c r="P51" s="27">
+      <c r="P51" s="22">
         <v>5.3652514667032989</v>
       </c>
-      <c r="Q51" s="27">
+      <c r="Q51" s="22">
         <v>9.2649000955130418</v>
       </c>
-      <c r="R51" s="27">
+      <c r="R51" s="22">
         <v>9.0890682502280669</v>
       </c>
-      <c r="S51" s="27">
+      <c r="S51" s="22">
         <v>9.9765060436310478</v>
       </c>
-      <c r="T51" s="27">
+      <c r="T51" s="22">
         <v>6.529242534055669</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="22">
         <v>-22.798130528132006</v>
       </c>
-      <c r="V51" s="27">
+      <c r="V51" s="22">
         <v>-0.63638980007551993</v>
       </c>
-      <c r="W51" s="27"/>
-      <c r="X51" s="4"/>
+      <c r="W51" s="22">
+        <v>19.709837758696636</v>
+      </c>
+      <c r="X51" s="22"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
@@ -26441,31 +26334,31 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="4"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="4"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
@@ -26534,75 +26427,77 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="4"/>
     </row>
-    <row r="53" spans="1:91" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="22">
         <v>7.9971050281150582</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="22">
         <v>7.1481307532084628</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="22">
         <v>9.1162719814673778</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="22">
         <v>14.00548355126989</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="22">
         <v>6.8278652384597507</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="22">
         <v>9.4567990118836747</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="22">
         <v>13.232492959517586</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="22">
         <v>9.4074851283133967</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="22">
         <v>13.088773767949434</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K53" s="22">
         <v>24.726876965174355</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="22">
         <v>8.2740805897853846</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M53" s="22">
         <v>20.841578980011818</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="22">
         <v>11.154832880819313</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O53" s="22">
         <v>2.5138236025041465</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="22">
         <v>10.175576136419679</v>
       </c>
-      <c r="Q53" s="27">
+      <c r="Q53" s="22">
         <v>6.671002922614619</v>
       </c>
-      <c r="R53" s="27">
+      <c r="R53" s="22">
         <v>3.8291987666244438</v>
       </c>
-      <c r="S53" s="27">
+      <c r="S53" s="22">
         <v>5.7491168595328475</v>
       </c>
-      <c r="T53" s="27">
+      <c r="T53" s="22">
         <v>9.5867923187563377</v>
       </c>
-      <c r="U53" s="27">
+      <c r="U53" s="22">
         <v>-39.622616257853579</v>
       </c>
-      <c r="V53" s="27">
+      <c r="V53" s="22">
         <v>3.3287710517993219</v>
       </c>
-      <c r="W53" s="27"/>
-      <c r="X53" s="4"/>
+      <c r="W53" s="22">
+        <v>29.932678701938784</v>
+      </c>
+      <c r="X53" s="22"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
@@ -26671,83 +26566,85 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="4"/>
     </row>
-    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
+    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="4"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
@@ -26816,31 +26713,31 @@
       <c r="CL56" s="4"/>
       <c r="CM56" s="4"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="4"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
@@ -26909,408 +26806,423 @@
       <c r="CL57" s="4"/>
       <c r="CM57" s="4"/>
     </row>
-    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
+    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
+    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
+    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
+    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="25" t="s">
+    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
     </row>
-    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="19" t="s">
+      <c r="K67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="19" t="s">
+      <c r="M67" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="19" t="s">
+      <c r="O67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P67" s="19" t="s">
+      <c r="P67" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q67" s="19" t="s">
+      <c r="Q67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R67" s="19" t="s">
+      <c r="R67" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S67" s="19" t="s">
+      <c r="S67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T67" s="19" t="s">
+      <c r="T67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U67" s="19" t="s">
+      <c r="U67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V67" s="19" t="s">
+      <c r="V67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="19"/>
+      <c r="W67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
+    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="22">
         <v>6.9308293146482072</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="22">
         <v>5.8519152862602937</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="22">
         <v>5.1625391195155856</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="22">
         <v>12.155313426387053</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="22">
         <v>3.3093835653896377</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="22">
         <v>5.438879287068346</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="22">
         <v>10.919433467983055</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="22">
         <v>3.8515880943568845</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J69" s="22">
         <v>9.8663168471233291</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K69" s="22">
         <v>29.765885284885002</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L69" s="22">
         <v>5.470814870518808</v>
       </c>
-      <c r="M69" s="27">
+      <c r="M69" s="22">
         <v>16.096648549070252</v>
       </c>
-      <c r="N69" s="27">
+      <c r="N69" s="22">
         <v>5.9130200795450207</v>
       </c>
-      <c r="O69" s="27">
+      <c r="O69" s="22">
         <v>-1.2768697161622384</v>
       </c>
-      <c r="P69" s="27">
+      <c r="P69" s="22">
         <v>11.888186265320783</v>
       </c>
-      <c r="Q69" s="27">
+      <c r="Q69" s="22">
         <v>6.6576438874351709</v>
       </c>
-      <c r="R69" s="27">
+      <c r="R69" s="22">
         <v>-0.39816119543155537</v>
       </c>
-      <c r="S69" s="27">
+      <c r="S69" s="22">
         <v>3.4150123261192249</v>
       </c>
-      <c r="T69" s="27">
+      <c r="T69" s="22">
         <v>7.4536134480505751</v>
       </c>
-      <c r="U69" s="27">
+      <c r="U69" s="22">
         <v>-49.247997782288685</v>
       </c>
-      <c r="V69" s="27">
+      <c r="V69" s="22">
         <v>6.9952064277637618</v>
       </c>
-      <c r="W69" s="27"/>
-      <c r="X69" s="4"/>
+      <c r="W69" s="22">
+        <v>35.856961144363908</v>
+      </c>
+      <c r="X69" s="22"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -27379,75 +27291,77 @@
       <c r="CL69" s="4"/>
       <c r="CM69" s="4"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="22">
         <v>-0.31481408326639837</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="22">
         <v>-2.7854299233555651</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="22">
         <v>-3.4319990444153063</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="22">
         <v>7.508555601846794</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="22">
         <v>-0.53428472366015001</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="22">
         <v>5.3873292407051281</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="22">
         <v>5.4157558960894079</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="22">
         <v>5.2103635807643656</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="22">
         <v>4.5520870920694705</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="22">
         <v>4.3869853990830592</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="22">
         <v>3.1283987973896643</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M70" s="22">
         <v>15.81107725752824</v>
       </c>
-      <c r="N70" s="27">
+      <c r="N70" s="22">
         <v>3.7148770361682608</v>
       </c>
-      <c r="O70" s="27">
+      <c r="O70" s="22">
         <v>5.0681908181515922</v>
       </c>
-      <c r="P70" s="27">
+      <c r="P70" s="22">
         <v>6.5891743460501289</v>
       </c>
-      <c r="Q70" s="27">
+      <c r="Q70" s="22">
         <v>7.8601772202289197</v>
       </c>
-      <c r="R70" s="27">
+      <c r="R70" s="22">
         <v>7.2328455962403098</v>
       </c>
-      <c r="S70" s="27">
+      <c r="S70" s="22">
         <v>6.4669412577363232</v>
       </c>
-      <c r="T70" s="27">
+      <c r="T70" s="22">
         <v>5.5019618620821404</v>
       </c>
-      <c r="U70" s="27">
+      <c r="U70" s="22">
         <v>-26.758976255330026</v>
       </c>
-      <c r="V70" s="27">
+      <c r="V70" s="22">
         <v>-4.0649687669410213</v>
       </c>
-      <c r="W70" s="27"/>
-      <c r="X70" s="4"/>
+      <c r="W70" s="22">
+        <v>18.202481989248056</v>
+      </c>
+      <c r="X70" s="22"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -27516,31 +27430,31 @@
       <c r="CL70" s="4"/>
       <c r="CM70" s="4"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="4"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -27609,75 +27523,77 @@
       <c r="CL71" s="4"/>
       <c r="CM71" s="4"/>
     </row>
-    <row r="72" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="22">
         <v>3.2835244945456594</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="22">
         <v>1.6555338643299677</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="22">
         <v>1.1693713504989205</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="22">
         <v>10.094544764656206</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="22">
         <v>1.6448125418795314</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72" s="22">
         <v>5.4170331989767249</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="22">
         <v>8.587719830981527</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="22">
         <v>4.4104374392717602</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="22">
         <v>7.6638875481011866</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K72" s="22">
         <v>19.55185617997364</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L72" s="22">
         <v>4.6476660310403588</v>
       </c>
-      <c r="M72" s="27">
+      <c r="M72" s="22">
         <v>15.997752804470693</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N72" s="22">
         <v>5.1530096797939535</v>
       </c>
-      <c r="O72" s="27">
+      <c r="O72" s="22">
         <v>0.88693819125636253</v>
       </c>
-      <c r="P72" s="27">
+      <c r="P72" s="22">
         <v>10.00620999807775</v>
       </c>
-      <c r="Q72" s="27">
+      <c r="Q72" s="22">
         <v>7.0714646390219258</v>
       </c>
-      <c r="R72" s="27">
+      <c r="R72" s="22">
         <v>2.2471962802174374</v>
       </c>
-      <c r="S72" s="27">
+      <c r="S72" s="22">
         <v>4.5245789049348275</v>
       </c>
-      <c r="T72" s="27">
+      <c r="T72" s="22">
         <v>6.7308809389448498</v>
       </c>
-      <c r="U72" s="27">
+      <c r="U72" s="22">
         <v>-41.015790389706744</v>
       </c>
-      <c r="V72" s="27">
+      <c r="V72" s="22">
         <v>1.9680037922550753</v>
       </c>
-      <c r="W72" s="27"/>
-      <c r="X72" s="4"/>
+      <c r="W72" s="22">
+        <v>28.307210667744243</v>
+      </c>
+      <c r="X72" s="22"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
@@ -27746,83 +27662,85 @@
       <c r="CL72" s="4"/>
       <c r="CM72" s="4"/>
     </row>
-    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
+    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
     </row>
-    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="4"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -27892,31 +27810,31 @@
       <c r="CM75" s="4"/>
       <c r="CN75" s="4"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="4"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -27990,385 +27908,399 @@
       <c r="CQ76" s="4"/>
       <c r="CR76" s="4"/>
     </row>
-    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+    </row>
+    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+    </row>
+    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+    </row>
+    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
     </row>
-    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="17"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
+    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
     </row>
-    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
+    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
     </row>
-    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="17"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
+    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
     </row>
-    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
+    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C85" s="19">
+        <v>2001</v>
+      </c>
+      <c r="D85" s="19">
+        <v>2002</v>
+      </c>
+      <c r="E85" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F85" s="19">
+        <v>2004</v>
+      </c>
+      <c r="G85" s="19">
+        <v>2005</v>
+      </c>
+      <c r="H85" s="19">
+        <v>2006</v>
+      </c>
+      <c r="I85" s="19">
+        <v>2007</v>
+      </c>
+      <c r="J85" s="19">
+        <v>2008</v>
+      </c>
+      <c r="K85" s="19">
+        <v>2009</v>
+      </c>
+      <c r="L85" s="19">
+        <v>2010</v>
+      </c>
+      <c r="M85" s="19">
+        <v>2011</v>
+      </c>
+      <c r="N85" s="19">
+        <v>2012</v>
+      </c>
+      <c r="O85" s="19">
+        <v>2013</v>
+      </c>
+      <c r="P85" s="19">
+        <v>2014</v>
+      </c>
+      <c r="Q85" s="19">
+        <v>2015</v>
+      </c>
+      <c r="R85" s="19">
+        <v>2016</v>
+      </c>
+      <c r="S85" s="19">
+        <v>2017</v>
+      </c>
+      <c r="T85" s="19">
+        <v>2018</v>
+      </c>
+      <c r="U85" s="19">
+        <v>2019</v>
+      </c>
+      <c r="V85" s="19">
+        <v>2020</v>
+      </c>
+      <c r="W85" s="19">
+        <v>2021</v>
+      </c>
+      <c r="X85" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
+    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
     </row>
-    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-    </row>
-    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="24">
-        <v>2000</v>
-      </c>
-      <c r="C85" s="24">
-        <v>2001</v>
-      </c>
-      <c r="D85" s="24">
-        <v>2002</v>
-      </c>
-      <c r="E85" s="24">
-        <v>2003</v>
-      </c>
-      <c r="F85" s="24">
-        <v>2004</v>
-      </c>
-      <c r="G85" s="24">
-        <v>2005</v>
-      </c>
-      <c r="H85" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I85" s="24">
-        <v>2007</v>
-      </c>
-      <c r="J85" s="24">
-        <v>2008</v>
-      </c>
-      <c r="K85" s="24">
-        <v>2009</v>
-      </c>
-      <c r="L85" s="24">
-        <v>2010</v>
-      </c>
-      <c r="M85" s="24">
-        <v>2011</v>
-      </c>
-      <c r="N85" s="24">
-        <v>2012</v>
-      </c>
-      <c r="O85" s="24">
-        <v>2013</v>
-      </c>
-      <c r="P85" s="24">
-        <v>2014</v>
-      </c>
-      <c r="Q85" s="24">
-        <v>2015</v>
-      </c>
-      <c r="R85" s="24">
-        <v>2016</v>
-      </c>
-      <c r="S85" s="24">
-        <v>2017</v>
-      </c>
-      <c r="T85" s="24">
-        <v>2018</v>
-      </c>
-      <c r="U85" s="24">
-        <v>2019</v>
-      </c>
-      <c r="V85" s="24">
-        <v>2020</v>
-      </c>
-      <c r="W85" s="24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-    </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="22">
         <v>53.611252797818999</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="22">
         <v>56.12666427346845</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="22">
         <v>58.723068210170268</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E87" s="22">
         <v>62.318202488409803</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F87" s="22">
         <v>65.330891232712702</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87" s="22">
         <v>69.720475869953887</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="22">
         <v>74.127089942943442</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="22">
         <v>78.165129969690256</v>
       </c>
-      <c r="J87" s="27">
+      <c r="J87" s="22">
         <v>82.460012488682523</v>
       </c>
-      <c r="K87" s="27">
+      <c r="K87" s="22">
         <v>87.266440154913198</v>
       </c>
-      <c r="L87" s="27">
+      <c r="L87" s="22">
         <v>90.067694410807874</v>
       </c>
-      <c r="M87" s="27">
+      <c r="M87" s="22">
         <v>92.388603214569031</v>
       </c>
-      <c r="N87" s="27">
+      <c r="N87" s="22">
         <v>95.508841473431474</v>
       </c>
-      <c r="O87" s="27">
+      <c r="O87" s="22">
         <v>98.17680438340571</v>
       </c>
-      <c r="P87" s="27">
+      <c r="P87" s="22">
         <v>98.940230935428815</v>
       </c>
-      <c r="Q87" s="27">
+      <c r="Q87" s="22">
         <v>99.675962724080136</v>
       </c>
-      <c r="R87" s="27">
+      <c r="R87" s="22">
         <v>98.489786829332033</v>
       </c>
-      <c r="S87" s="27">
+      <c r="S87" s="22">
         <v>100.00350907678934</v>
       </c>
-      <c r="T87" s="27">
+      <c r="T87" s="22">
         <v>100</v>
       </c>
-      <c r="U87" s="27">
+      <c r="U87" s="22">
         <v>103.65863623431521</v>
       </c>
-      <c r="V87" s="27">
+      <c r="V87" s="22">
         <v>103.98986643821762</v>
       </c>
-      <c r="W87" s="27">
+      <c r="W87" s="22">
         <v>103.71321564996232</v>
       </c>
-      <c r="X87" s="4"/>
+      <c r="X87" s="22">
+        <v>105.38830300644517</v>
+      </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
@@ -28442,77 +28374,79 @@
       <c r="CQ87" s="4"/>
       <c r="CR87" s="4"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="22">
         <v>51.174490250378255</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="22">
         <v>53.345235978885384</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="22">
         <v>56.596270102173364</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="22">
         <v>62.20957207012534</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88" s="22">
         <v>63.370881502424773</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88" s="22">
         <v>65.118260943841193</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="22">
         <v>65.252408030553326</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="22">
         <v>66.523642506060327</v>
       </c>
-      <c r="J88" s="27">
+      <c r="J88" s="22">
         <v>69.01754947350328</v>
       </c>
-      <c r="K88" s="27">
+      <c r="K88" s="22">
         <v>71.107622376576856</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L88" s="22">
         <v>73.538362341784918</v>
       </c>
-      <c r="M88" s="27">
+      <c r="M88" s="22">
         <v>77.345349518672151</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N88" s="22">
         <v>81.945821604889503</v>
       </c>
-      <c r="O88" s="27">
+      <c r="O88" s="22">
         <v>91.802770991741767</v>
       </c>
-      <c r="P88" s="27">
+      <c r="P88" s="22">
         <v>95.029316211931814</v>
       </c>
-      <c r="Q88" s="27">
+      <c r="Q88" s="22">
         <v>93.938130779320588</v>
       </c>
-      <c r="R88" s="27">
+      <c r="R88" s="22">
         <v>95.16153912675648</v>
       </c>
-      <c r="S88" s="27">
+      <c r="S88" s="22">
         <v>96.808804978308387</v>
       </c>
-      <c r="T88" s="27">
+      <c r="T88" s="22">
         <v>100</v>
       </c>
-      <c r="U88" s="27">
+      <c r="U88" s="22">
         <v>100.97370764850464</v>
       </c>
-      <c r="V88" s="27">
+      <c r="V88" s="22">
         <v>106.43432600213636</v>
       </c>
-      <c r="W88" s="27">
+      <c r="W88" s="22">
         <v>110.2381345462428</v>
       </c>
-      <c r="X88" s="4"/>
+      <c r="X88" s="22">
+        <v>111.64392641562711</v>
+      </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -28586,31 +28520,31 @@
       <c r="CQ88" s="4"/>
       <c r="CR88" s="4"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="23"/>
-      <c r="X89" s="4"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="18"/>
+      <c r="X89" s="18"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
@@ -28684,77 +28618,79 @@
       <c r="CQ89" s="4"/>
       <c r="CR89" s="4"/>
     </row>
-    <row r="90" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="22">
         <v>52.384637672475684</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="22">
         <v>54.775330763164199</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="22">
         <v>57.734921843946616</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E90" s="22">
         <v>62.270026497716024</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F90" s="22">
         <v>64.48207308362062</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90" s="22">
         <v>67.770130530127688</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H90" s="22">
         <v>70.367200928941656</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="22">
         <v>73.377114798703147</v>
       </c>
-      <c r="J90" s="27">
+      <c r="J90" s="22">
         <v>76.888918320708953</v>
       </c>
-      <c r="K90" s="27">
+      <c r="K90" s="22">
         <v>80.763138757628411</v>
       </c>
-      <c r="L90" s="27">
+      <c r="L90" s="22">
         <v>84.259118954870942</v>
       </c>
-      <c r="M90" s="27">
+      <c r="M90" s="22">
         <v>87.178997699174104</v>
       </c>
-      <c r="N90" s="27">
+      <c r="N90" s="22">
         <v>90.819412283105834</v>
       </c>
-      <c r="O90" s="27">
+      <c r="O90" s="22">
         <v>96.003116082018337</v>
       </c>
-      <c r="P90" s="27">
+      <c r="P90" s="22">
         <v>97.551245818021172</v>
       </c>
-      <c r="Q90" s="27">
+      <c r="Q90" s="22">
         <v>97.701436228134668</v>
       </c>
-      <c r="R90" s="27">
+      <c r="R90" s="22">
         <v>97.336019681538545</v>
       </c>
-      <c r="S90" s="27">
+      <c r="S90" s="22">
         <v>98.842034816967228</v>
       </c>
-      <c r="T90" s="27">
+      <c r="T90" s="22">
         <v>100</v>
       </c>
-      <c r="U90" s="27">
+      <c r="U90" s="22">
         <v>102.67580605977122</v>
       </c>
-      <c r="V90" s="27">
+      <c r="V90" s="22">
         <v>105.10095133025533</v>
       </c>
-      <c r="W90" s="27">
+      <c r="W90" s="22">
         <v>106.50352790524191</v>
       </c>
-      <c r="X90" s="4"/>
+      <c r="X90" s="22">
+        <v>107.85277460180687</v>
+      </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
@@ -28828,514 +28764,533 @@
       <c r="CQ90" s="4"/>
       <c r="CR90" s="4"/>
     </row>
-    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
+    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
     </row>
-    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+    </row>
+    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+    </row>
+    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+    </row>
+    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
     </row>
-    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
+    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
     </row>
-    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
+    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
     </row>
-    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
+    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
     </row>
-    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
+    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C104" s="19">
+        <v>2001</v>
+      </c>
+      <c r="D104" s="19">
+        <v>2002</v>
+      </c>
+      <c r="E104" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F104" s="19">
+        <v>2004</v>
+      </c>
+      <c r="G104" s="19">
+        <v>2005</v>
+      </c>
+      <c r="H104" s="19">
+        <v>2006</v>
+      </c>
+      <c r="I104" s="19">
+        <v>2007</v>
+      </c>
+      <c r="J104" s="19">
+        <v>2008</v>
+      </c>
+      <c r="K104" s="19">
+        <v>2009</v>
+      </c>
+      <c r="L104" s="19">
+        <v>2010</v>
+      </c>
+      <c r="M104" s="19">
+        <v>2011</v>
+      </c>
+      <c r="N104" s="19">
+        <v>2012</v>
+      </c>
+      <c r="O104" s="19">
+        <v>2013</v>
+      </c>
+      <c r="P104" s="19">
+        <v>2014</v>
+      </c>
+      <c r="Q104" s="19">
+        <v>2015</v>
+      </c>
+      <c r="R104" s="19">
+        <v>2016</v>
+      </c>
+      <c r="S104" s="19">
+        <v>2017</v>
+      </c>
+      <c r="T104" s="19">
+        <v>2018</v>
+      </c>
+      <c r="U104" s="19">
+        <v>2019</v>
+      </c>
+      <c r="V104" s="19">
+        <v>2020</v>
+      </c>
+      <c r="W104" s="19">
+        <v>2021</v>
+      </c>
+      <c r="X104" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="17"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
+    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
     </row>
-    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-    </row>
-    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="24">
-        <v>2000</v>
-      </c>
-      <c r="C104" s="24">
-        <v>2001</v>
-      </c>
-      <c r="D104" s="24">
-        <v>2002</v>
-      </c>
-      <c r="E104" s="24">
-        <v>2003</v>
-      </c>
-      <c r="F104" s="24">
-        <v>2004</v>
-      </c>
-      <c r="G104" s="24">
-        <v>2005</v>
-      </c>
-      <c r="H104" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I104" s="24">
-        <v>2007</v>
-      </c>
-      <c r="J104" s="24">
-        <v>2008</v>
-      </c>
-      <c r="K104" s="24">
-        <v>2009</v>
-      </c>
-      <c r="L104" s="24">
-        <v>2010</v>
-      </c>
-      <c r="M104" s="24">
-        <v>2011</v>
-      </c>
-      <c r="N104" s="24">
-        <v>2012</v>
-      </c>
-      <c r="O104" s="24">
-        <v>2013</v>
-      </c>
-      <c r="P104" s="24">
-        <v>2014</v>
-      </c>
-      <c r="Q104" s="24">
-        <v>2015</v>
-      </c>
-      <c r="R104" s="24">
-        <v>2016</v>
-      </c>
-      <c r="S104" s="24">
-        <v>2017</v>
-      </c>
-      <c r="T104" s="24">
-        <v>2018</v>
-      </c>
-      <c r="U104" s="24">
-        <v>2019</v>
-      </c>
-      <c r="V104" s="24">
-        <v>2020</v>
-      </c>
-      <c r="W104" s="24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
-    </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="15" t="s">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="22">
         <v>50.824964106242909</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106" s="22">
         <v>52.684295579333785</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106" s="22">
         <v>54.454629327222356</v>
       </c>
-      <c r="E106" s="27">
+      <c r="E106" s="22">
         <v>55.694528177149941</v>
       </c>
-      <c r="F106" s="27">
+      <c r="F106" s="22">
         <v>57.439454436759405</v>
       </c>
-      <c r="G106" s="27">
+      <c r="G106" s="22">
         <v>59.27987599065078</v>
       </c>
-      <c r="H106" s="27">
+      <c r="H106" s="22">
         <v>60.713033484652371</v>
       </c>
-      <c r="I106" s="27">
+      <c r="I106" s="22">
         <v>62.712571568285881</v>
       </c>
-      <c r="J106" s="27">
+      <c r="J106" s="22">
         <v>62.798758545537822</v>
       </c>
-      <c r="K106" s="27">
+      <c r="K106" s="22">
         <v>64.565421838057276</v>
       </c>
-      <c r="L106" s="27">
+      <c r="L106" s="22">
         <v>69.33016981968143</v>
       </c>
-      <c r="M106" s="27">
+      <c r="M106" s="22">
         <v>69.275459699862878</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="22">
         <v>68.80308057153475</v>
       </c>
-      <c r="O106" s="27">
+      <c r="O106" s="22">
         <v>67.389805108819843</v>
       </c>
-      <c r="P106" s="27">
+      <c r="P106" s="22">
         <v>65.402554790212832</v>
       </c>
-      <c r="Q106" s="27">
+      <c r="Q106" s="22">
         <v>66.913097780210308</v>
       </c>
-      <c r="R106" s="27">
+      <c r="R106" s="22">
         <v>66.108530280360867</v>
       </c>
-      <c r="S106" s="27">
+      <c r="S106" s="22">
         <v>64.391626851938128</v>
       </c>
-      <c r="T106" s="27">
+      <c r="T106" s="22">
         <v>62.96815915802442</v>
       </c>
-      <c r="U106" s="27">
+      <c r="U106" s="22">
         <v>64.001373969751981</v>
       </c>
-      <c r="V106" s="27">
+      <c r="V106" s="22">
         <v>53.970161413042426</v>
       </c>
-      <c r="W106" s="27">
+      <c r="W106" s="22">
         <v>55.736520502822231</v>
       </c>
-      <c r="X106" s="4"/>
+      <c r="X106" s="22">
+        <v>59.219081741570513</v>
+      </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -29409,77 +29364,79 @@
       <c r="CQ106" s="4"/>
       <c r="CR106" s="4"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="22">
         <v>49.175035893757084</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107" s="22">
         <v>47.315704420666229</v>
       </c>
-      <c r="D107" s="27">
+      <c r="D107" s="22">
         <v>45.545370672777644</v>
       </c>
-      <c r="E107" s="27">
+      <c r="E107" s="22">
         <v>44.305471822850059</v>
       </c>
-      <c r="F107" s="27">
+      <c r="F107" s="22">
         <v>42.560545563240581</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G107" s="22">
         <v>40.720124009349234</v>
       </c>
-      <c r="H107" s="27">
+      <c r="H107" s="22">
         <v>39.286966515347622</v>
       </c>
-      <c r="I107" s="27">
+      <c r="I107" s="22">
         <v>37.287428431714119</v>
       </c>
-      <c r="J107" s="27">
+      <c r="J107" s="22">
         <v>37.201241454462185</v>
       </c>
-      <c r="K107" s="27">
+      <c r="K107" s="22">
         <v>35.434578161942717</v>
       </c>
-      <c r="L107" s="27">
+      <c r="L107" s="22">
         <v>30.669830180318563</v>
       </c>
-      <c r="M107" s="27">
+      <c r="M107" s="22">
         <v>30.724540300137132</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="22">
         <v>31.196919428465247</v>
       </c>
-      <c r="O107" s="27">
+      <c r="O107" s="22">
         <v>32.610194891180164</v>
       </c>
-      <c r="P107" s="27">
+      <c r="P107" s="22">
         <v>34.597445209787161</v>
       </c>
-      <c r="Q107" s="27">
+      <c r="Q107" s="22">
         <v>33.086902219789707</v>
       </c>
-      <c r="R107" s="27">
+      <c r="R107" s="22">
         <v>33.891469719639133</v>
       </c>
-      <c r="S107" s="27">
+      <c r="S107" s="22">
         <v>35.608373148061887</v>
       </c>
-      <c r="T107" s="27">
+      <c r="T107" s="22">
         <v>37.03184084197558</v>
       </c>
-      <c r="U107" s="27">
+      <c r="U107" s="22">
         <v>35.998626030248019</v>
       </c>
-      <c r="V107" s="27">
+      <c r="V107" s="22">
         <v>46.029838586957581</v>
       </c>
-      <c r="W107" s="27">
+      <c r="W107" s="22">
         <v>44.263479497177777</v>
       </c>
-      <c r="X107" s="4"/>
+      <c r="X107" s="22">
+        <v>40.78091825842948</v>
+      </c>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -29553,31 +29510,31 @@
       <c r="CQ107" s="4"/>
       <c r="CR107" s="4"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23"/>
-      <c r="W108" s="23"/>
-      <c r="X108" s="4"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="18"/>
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
@@ -29651,77 +29608,79 @@
       <c r="CQ108" s="4"/>
       <c r="CR108" s="4"/>
     </row>
-    <row r="109" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="22">
         <v>100</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="22">
         <v>100</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="22">
         <v>100</v>
       </c>
-      <c r="E109" s="27">
+      <c r="E109" s="22">
         <v>100</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F109" s="22">
         <v>100</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G109" s="22">
         <v>100</v>
       </c>
-      <c r="H109" s="27">
+      <c r="H109" s="22">
         <v>100</v>
       </c>
-      <c r="I109" s="27">
+      <c r="I109" s="22">
         <v>100</v>
       </c>
-      <c r="J109" s="27">
+      <c r="J109" s="22">
         <v>100</v>
       </c>
-      <c r="K109" s="27">
+      <c r="K109" s="22">
         <v>100</v>
       </c>
-      <c r="L109" s="27">
+      <c r="L109" s="22">
         <v>100</v>
       </c>
-      <c r="M109" s="27">
+      <c r="M109" s="22">
         <v>100</v>
       </c>
-      <c r="N109" s="27">
+      <c r="N109" s="22">
         <v>100</v>
       </c>
-      <c r="O109" s="27">
+      <c r="O109" s="22">
         <v>100</v>
       </c>
-      <c r="P109" s="27">
+      <c r="P109" s="22">
         <v>100</v>
       </c>
-      <c r="Q109" s="27">
+      <c r="Q109" s="22">
         <v>100</v>
       </c>
-      <c r="R109" s="27">
+      <c r="R109" s="22">
         <v>100</v>
       </c>
-      <c r="S109" s="27">
+      <c r="S109" s="22">
         <v>100</v>
       </c>
-      <c r="T109" s="27">
+      <c r="T109" s="22">
         <v>100</v>
       </c>
-      <c r="U109" s="27">
+      <c r="U109" s="22">
         <v>100</v>
       </c>
-      <c r="V109" s="27">
+      <c r="V109" s="22">
         <v>100</v>
       </c>
-      <c r="W109" s="27">
+      <c r="W109" s="22">
         <v>100</v>
       </c>
-      <c r="X109" s="4"/>
+      <c r="X109" s="22">
+        <v>100</v>
+      </c>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
@@ -29795,83 +29754,85 @@
       <c r="CQ109" s="4"/>
       <c r="CR109" s="4"/>
     </row>
-    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
+    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
     </row>
-    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="23"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="23"/>
-      <c r="R112" s="23"/>
-      <c r="S112" s="23"/>
-      <c r="T112" s="23"/>
-      <c r="U112" s="23"/>
-      <c r="V112" s="23"/>
-      <c r="W112" s="23"/>
-      <c r="X112" s="4"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="18"/>
+      <c r="U112" s="18"/>
+      <c r="V112" s="18"/>
+      <c r="W112" s="18"/>
+      <c r="X112" s="18"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
@@ -29945,31 +29906,31 @@
       <c r="CQ112" s="4"/>
       <c r="CR112" s="4"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="23"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="23"/>
-      <c r="Q113" s="23"/>
-      <c r="R113" s="23"/>
-      <c r="S113" s="23"/>
-      <c r="T113" s="23"/>
-      <c r="U113" s="23"/>
-      <c r="V113" s="23"/>
-      <c r="W113" s="23"/>
-      <c r="X113" s="4"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="18"/>
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
@@ -30043,412 +30004,427 @@
       <c r="CQ113" s="4"/>
       <c r="CR113" s="4"/>
     </row>
-    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="17"/>
-      <c r="V114" s="17"/>
-      <c r="W114" s="17"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
     </row>
-    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="17"/>
-      <c r="V115" s="17"/>
-      <c r="W115" s="17"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
     </row>
-    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+    </row>
+    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+    </row>
+    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+    </row>
+    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="17"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="17"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
     </row>
-    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="17"/>
-      <c r="S117" s="17"/>
-      <c r="T117" s="17"/>
-      <c r="U117" s="17"/>
-      <c r="V117" s="17"/>
-      <c r="W117" s="17"/>
+    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
     </row>
-    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
+    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
     </row>
-    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="17"/>
-      <c r="W119" s="17"/>
+    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="W122" s="15"/>
+      <c r="X122" s="15"/>
     </row>
-    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
+    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C123" s="19">
+        <v>2001</v>
+      </c>
+      <c r="D123" s="19">
+        <v>2002</v>
+      </c>
+      <c r="E123" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F123" s="19">
+        <v>2004</v>
+      </c>
+      <c r="G123" s="19">
+        <v>2005</v>
+      </c>
+      <c r="H123" s="19">
+        <v>2006</v>
+      </c>
+      <c r="I123" s="19">
+        <v>2007</v>
+      </c>
+      <c r="J123" s="19">
+        <v>2008</v>
+      </c>
+      <c r="K123" s="19">
+        <v>2009</v>
+      </c>
+      <c r="L123" s="19">
+        <v>2010</v>
+      </c>
+      <c r="M123" s="19">
+        <v>2011</v>
+      </c>
+      <c r="N123" s="19">
+        <v>2012</v>
+      </c>
+      <c r="O123" s="19">
+        <v>2013</v>
+      </c>
+      <c r="P123" s="19">
+        <v>2014</v>
+      </c>
+      <c r="Q123" s="19">
+        <v>2015</v>
+      </c>
+      <c r="R123" s="19">
+        <v>2016</v>
+      </c>
+      <c r="S123" s="19">
+        <v>2017</v>
+      </c>
+      <c r="T123" s="19">
+        <v>2018</v>
+      </c>
+      <c r="U123" s="19">
+        <v>2019</v>
+      </c>
+      <c r="V123" s="19">
+        <v>2020</v>
+      </c>
+      <c r="W123" s="19">
+        <v>2021</v>
+      </c>
+      <c r="X123" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
+    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
     </row>
-    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-    </row>
-    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="24">
-        <v>2000</v>
-      </c>
-      <c r="C123" s="24">
-        <v>2001</v>
-      </c>
-      <c r="D123" s="24">
-        <v>2002</v>
-      </c>
-      <c r="E123" s="24">
-        <v>2003</v>
-      </c>
-      <c r="F123" s="24">
-        <v>2004</v>
-      </c>
-      <c r="G123" s="24">
-        <v>2005</v>
-      </c>
-      <c r="H123" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I123" s="24">
-        <v>2007</v>
-      </c>
-      <c r="J123" s="24">
-        <v>2008</v>
-      </c>
-      <c r="K123" s="24">
-        <v>2009</v>
-      </c>
-      <c r="L123" s="24">
-        <v>2010</v>
-      </c>
-      <c r="M123" s="24">
-        <v>2011</v>
-      </c>
-      <c r="N123" s="24">
-        <v>2012</v>
-      </c>
-      <c r="O123" s="24">
-        <v>2013</v>
-      </c>
-      <c r="P123" s="24">
-        <v>2014</v>
-      </c>
-      <c r="Q123" s="24">
-        <v>2015</v>
-      </c>
-      <c r="R123" s="24">
-        <v>2016</v>
-      </c>
-      <c r="S123" s="24">
-        <v>2017</v>
-      </c>
-      <c r="T123" s="24">
-        <v>2018</v>
-      </c>
-      <c r="U123" s="24">
-        <v>2019</v>
-      </c>
-      <c r="V123" s="24">
-        <v>2020</v>
-      </c>
-      <c r="W123" s="24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
-      <c r="R124" s="17"/>
-      <c r="S124" s="17"/>
-      <c r="T124" s="17"/>
-      <c r="U124" s="17"/>
-      <c r="V124" s="17"/>
-      <c r="W124" s="17"/>
-    </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="27">
+      <c r="B125" s="22">
         <v>49.662098728840562</v>
       </c>
-      <c r="C125" s="27">
+      <c r="C125" s="22">
         <v>51.415842251406694</v>
       </c>
-      <c r="D125" s="27">
+      <c r="D125" s="22">
         <v>53.538308948641877</v>
       </c>
-      <c r="E125" s="27">
+      <c r="E125" s="22">
         <v>55.651472713994444</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="22">
         <v>56.693166570791107</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G125" s="22">
         <v>57.621593707846316</v>
       </c>
-      <c r="H125" s="27">
+      <c r="H125" s="22">
         <v>57.633534912924112</v>
       </c>
-      <c r="I125" s="27">
+      <c r="I125" s="22">
         <v>58.871104865716575</v>
       </c>
-      <c r="J125" s="27">
+      <c r="J125" s="22">
         <v>58.556001517856757</v>
       </c>
-      <c r="K125" s="27">
+      <c r="K125" s="22">
         <v>59.753853985508876</v>
       </c>
-      <c r="L125" s="27">
+      <c r="L125" s="22">
         <v>64.858982615379929</v>
       </c>
-      <c r="M125" s="27">
+      <c r="M125" s="22">
         <v>65.369157359781454</v>
       </c>
-      <c r="N125" s="27">
+      <c r="N125" s="22">
         <v>65.424888883320875</v>
       </c>
-      <c r="O125" s="27">
+      <c r="O125" s="22">
         <v>65.897757858781475</v>
       </c>
-      <c r="P125" s="27">
+      <c r="P125" s="22">
         <v>64.4843926393348</v>
       </c>
-      <c r="Q125" s="27">
+      <c r="Q125" s="22">
         <v>65.587585782312161</v>
       </c>
-      <c r="R125" s="27">
+      <c r="R125" s="22">
         <v>65.33409617016666</v>
       </c>
-      <c r="S125" s="27">
+      <c r="S125" s="22">
         <v>63.64376092376186</v>
       </c>
-      <c r="T125" s="27">
+      <c r="T125" s="22">
         <v>62.96815915802442</v>
       </c>
-      <c r="U125" s="27">
+      <c r="U125" s="22">
         <v>63.39455061344659</v>
       </c>
-      <c r="V125" s="27">
+      <c r="V125" s="22">
         <v>54.546808282788085</v>
       </c>
-      <c r="W125" s="27">
+      <c r="W125" s="22">
         <v>57.236062246379426</v>
       </c>
-      <c r="X125" s="4"/>
+      <c r="X125" s="22">
+        <v>60.603900935846532</v>
+      </c>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -30522,77 +30498,79 @@
       <c r="CQ125" s="4"/>
       <c r="CR125" s="4"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="22">
         <v>50.337901271159424</v>
       </c>
-      <c r="C126" s="27">
+      <c r="C126" s="22">
         <v>48.58415774859332</v>
       </c>
-      <c r="D126" s="27">
+      <c r="D126" s="22">
         <v>46.46169105135813</v>
       </c>
-      <c r="E126" s="27">
+      <c r="E126" s="22">
         <v>44.34852728600557</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F126" s="22">
         <v>43.306833429208893</v>
       </c>
-      <c r="G126" s="27">
+      <c r="G126" s="22">
         <v>42.378406292153677</v>
       </c>
-      <c r="H126" s="27">
+      <c r="H126" s="22">
         <v>42.366465087075902</v>
       </c>
-      <c r="I126" s="27">
+      <c r="I126" s="22">
         <v>41.128895134283425</v>
       </c>
-      <c r="J126" s="27">
+      <c r="J126" s="22">
         <v>41.443998482143229</v>
       </c>
-      <c r="K126" s="27">
+      <c r="K126" s="22">
         <v>40.246146014491131</v>
       </c>
-      <c r="L126" s="27">
+      <c r="L126" s="22">
         <v>35.141017384620064</v>
       </c>
-      <c r="M126" s="27">
+      <c r="M126" s="22">
         <v>34.630842640218532</v>
       </c>
-      <c r="N126" s="27">
+      <c r="N126" s="22">
         <v>34.575111116679125</v>
       </c>
-      <c r="O126" s="27">
+      <c r="O126" s="22">
         <v>34.102242141218539</v>
       </c>
-      <c r="P126" s="27">
+      <c r="P126" s="22">
         <v>35.5156073606652</v>
       </c>
-      <c r="Q126" s="27">
+      <c r="Q126" s="22">
         <v>34.412414217687832</v>
       </c>
-      <c r="R126" s="27">
+      <c r="R126" s="22">
         <v>34.66590382983334</v>
       </c>
-      <c r="S126" s="27">
+      <c r="S126" s="22">
         <v>36.356239076238154</v>
       </c>
-      <c r="T126" s="27">
+      <c r="T126" s="22">
         <v>37.03184084197558</v>
       </c>
-      <c r="U126" s="27">
+      <c r="U126" s="22">
         <v>36.60544938655341</v>
       </c>
-      <c r="V126" s="27">
+      <c r="V126" s="22">
         <v>45.453191717211915</v>
       </c>
-      <c r="W126" s="27">
+      <c r="W126" s="22">
         <v>42.763937753620567</v>
       </c>
-      <c r="X126" s="4"/>
+      <c r="X126" s="22">
+        <v>39.396099064153461</v>
+      </c>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -30666,31 +30644,31 @@
       <c r="CQ126" s="4"/>
       <c r="CR126" s="4"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
-      <c r="W127" s="23"/>
-      <c r="X127" s="4"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+      <c r="T127" s="18"/>
+      <c r="U127" s="18"/>
+      <c r="V127" s="18"/>
+      <c r="W127" s="18"/>
+      <c r="X127" s="18"/>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -30764,77 +30742,79 @@
       <c r="CQ127" s="4"/>
       <c r="CR127" s="4"/>
     </row>
-    <row r="128" spans="1:96" ht="18" x14ac:dyDescent="0.35">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="22">
         <v>100</v>
       </c>
-      <c r="C128" s="27">
+      <c r="C128" s="22">
         <v>100</v>
       </c>
-      <c r="D128" s="27">
+      <c r="D128" s="22">
         <v>100</v>
       </c>
-      <c r="E128" s="27">
+      <c r="E128" s="22">
         <v>100</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F128" s="22">
         <v>100</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="22">
         <v>100</v>
       </c>
-      <c r="H128" s="27">
+      <c r="H128" s="22">
         <v>100</v>
       </c>
-      <c r="I128" s="27">
+      <c r="I128" s="22">
         <v>100</v>
       </c>
-      <c r="J128" s="27">
+      <c r="J128" s="22">
         <v>100</v>
       </c>
-      <c r="K128" s="27">
+      <c r="K128" s="22">
         <v>100</v>
       </c>
-      <c r="L128" s="27">
+      <c r="L128" s="22">
         <v>100</v>
       </c>
-      <c r="M128" s="27">
+      <c r="M128" s="22">
         <v>100</v>
       </c>
-      <c r="N128" s="27">
+      <c r="N128" s="22">
         <v>100</v>
       </c>
-      <c r="O128" s="27">
+      <c r="O128" s="22">
         <v>100</v>
       </c>
-      <c r="P128" s="27">
+      <c r="P128" s="22">
         <v>100</v>
       </c>
-      <c r="Q128" s="27">
+      <c r="Q128" s="22">
         <v>100</v>
       </c>
-      <c r="R128" s="27">
+      <c r="R128" s="22">
         <v>100</v>
       </c>
-      <c r="S128" s="27">
+      <c r="S128" s="22">
         <v>100</v>
       </c>
-      <c r="T128" s="27">
+      <c r="T128" s="22">
         <v>100</v>
       </c>
-      <c r="U128" s="27">
+      <c r="U128" s="22">
         <v>100</v>
       </c>
-      <c r="V128" s="27">
+      <c r="V128" s="22">
         <v>100</v>
       </c>
-      <c r="W128" s="27">
+      <c r="W128" s="22">
         <v>100</v>
       </c>
-      <c r="X128" s="4"/>
+      <c r="X128" s="22">
+        <v>100</v>
+      </c>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
@@ -30908,57 +30888,59 @@
       <c r="CQ128" s="4"/>
       <c r="CR128" s="4"/>
     </row>
-    <row r="129" spans="1:23" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="22"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="22"/>
-      <c r="O129" s="22"/>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22"/>
-      <c r="S129" s="22"/>
-      <c r="T129" s="22"/>
-      <c r="U129" s="22"/>
-      <c r="V129" s="22"/>
-      <c r="W129" s="22"/>
+    <row r="129" spans="1:24" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
     </row>
-    <row r="130" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="17"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="17"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30966,9 +30948,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="22" man="1"/>
-    <brk id="76" max="22" man="1"/>
-    <brk id="94" max="22" man="1"/>
+    <brk id="38" max="23" man="1"/>
+    <brk id="76" max="23" man="1"/>
+    <brk id="94" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77063B-B267-4962-BA4C-42A1B04F3A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE16804-9BB2-478F-8797-2D4702ECCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="5565" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -607,13 +607,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23593,7 +23593,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23615,7 +23615,7 @@
     </row>
     <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23628,7 +23628,7 @@
     </row>
     <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23858,10 +23858,10 @@
         <v>146775.79935263871</v>
       </c>
       <c r="W12" s="16">
-        <v>156625.27793907956</v>
+        <v>156681.63824485309</v>
       </c>
       <c r="X12" s="16">
-        <v>216223.08642473246</v>
+        <v>216846.20981562923</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -24004,10 +24004,10 @@
         <v>125181.51096433375</v>
       </c>
       <c r="W13" s="16">
-        <v>124384.8685969763</v>
+        <v>124379.03788160303</v>
       </c>
       <c r="X13" s="16">
-        <v>148900.92439380832</v>
+        <v>148732.98389306018</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -24248,10 +24248,10 @@
         <v>271957.31031697243</v>
       </c>
       <c r="W15" s="17">
-        <v>281010.14653605584</v>
+        <v>281060.67612645612</v>
       </c>
       <c r="X15" s="17">
-        <v>365124.01081854082</v>
+        <v>365579.19370868942</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -24634,7 +24634,7 @@
     </row>
     <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24716,7 +24716,7 @@
     </row>
     <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24992,10 +24992,10 @@
         <v>141144.32913503263</v>
       </c>
       <c r="W31" s="16">
-        <v>151017.66631911049</v>
+        <v>151071.62883432151</v>
       </c>
       <c r="X31" s="16">
-        <v>205168.01225227909</v>
+        <v>205753.14074313574</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -25138,10 +25138,10 @@
         <v>117613.85228466717</v>
       </c>
       <c r="W32" s="16">
-        <v>112832.8859236993</v>
+        <v>112827.57477982395</v>
       </c>
       <c r="X32" s="16">
-        <v>133371.27166190947</v>
+        <v>133221.61012709711</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -25382,10 +25382,10 @@
         <v>258758.1814196998</v>
       </c>
       <c r="W34" s="17">
-        <v>263850.55224280979</v>
+        <v>263899.20361414546</v>
       </c>
       <c r="X34" s="17">
-        <v>338539.28391418856</v>
+        <v>338974.75087023282</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -25768,7 +25768,7 @@
     </row>
     <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25850,7 +25850,7 @@
     </row>
     <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -26121,10 +26121,10 @@
         <v>-49.085825129302705</v>
       </c>
       <c r="V50" s="22">
-        <v>6.7105603443363435</v>
+        <v>6.7489592534358849</v>
       </c>
       <c r="W50" s="22">
-        <v>38.05120684851002</v>
+        <v>38.399248466341902</v>
       </c>
       <c r="X50" s="22"/>
       <c r="Y50" s="4"/>
@@ -26260,10 +26260,10 @@
         <v>-22.798130528132006</v>
       </c>
       <c r="V51" s="22">
-        <v>-0.63638980007551993</v>
+        <v>-0.64104760882727874</v>
       </c>
       <c r="W51" s="22">
-        <v>19.709837758696636</v>
+        <v>19.580426433785235</v>
       </c>
       <c r="X51" s="22"/>
       <c r="Y51" s="4"/>
@@ -26492,10 +26492,10 @@
         <v>-39.622616257853579</v>
       </c>
       <c r="V53" s="22">
-        <v>3.3287710517993219</v>
+        <v>3.3473510231710719</v>
       </c>
       <c r="W53" s="22">
-        <v>29.932678701938784</v>
+        <v>30.071270996376001</v>
       </c>
       <c r="X53" s="22"/>
       <c r="Y53" s="4"/>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26946,7 +26946,7 @@
     </row>
     <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -27217,10 +27217,10 @@
         <v>-49.247997782288685</v>
       </c>
       <c r="V69" s="22">
-        <v>6.9952064277637618</v>
+        <v>7.0334385802999293</v>
       </c>
       <c r="W69" s="22">
-        <v>35.856961144363908</v>
+        <v>36.19575186336462</v>
       </c>
       <c r="X69" s="22"/>
       <c r="Y69" s="4"/>
@@ -27356,10 +27356,10 @@
         <v>-26.758976255330026</v>
       </c>
       <c r="V70" s="22">
-        <v>-4.0649687669410213</v>
+        <v>-4.0694845138298348</v>
       </c>
       <c r="W70" s="22">
-        <v>18.202481989248056</v>
+        <v>18.075399907399301</v>
       </c>
       <c r="X70" s="22"/>
       <c r="Y70" s="4"/>
@@ -27588,10 +27588,10 @@
         <v>-41.015790389706744</v>
       </c>
       <c r="V72" s="22">
-        <v>1.9680037922550753</v>
+        <v>1.9868056601105337</v>
       </c>
       <c r="W72" s="22">
-        <v>28.307210667744243</v>
+        <v>28.448569085436674</v>
       </c>
       <c r="X72" s="22"/>
       <c r="Y72" s="4"/>
@@ -27938,7 +27938,7 @@
     </row>
     <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -28020,7 +28020,7 @@
     </row>
     <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -28296,10 +28296,10 @@
         <v>103.98986643821762</v>
       </c>
       <c r="W87" s="22">
-        <v>103.71321564996232</v>
+        <v>103.71347648384992</v>
       </c>
       <c r="X87" s="22">
-        <v>105.38830300644517</v>
+        <v>105.39144580365954</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
@@ -28442,10 +28442,10 @@
         <v>106.43432600213636</v>
       </c>
       <c r="W88" s="22">
-        <v>110.2381345462428</v>
+        <v>110.23815598653171</v>
       </c>
       <c r="X88" s="22">
-        <v>111.64392641562711</v>
+        <v>111.64328651422603</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
@@ -28686,10 +28686,10 @@
         <v>105.10095133025533</v>
       </c>
       <c r="W90" s="22">
-        <v>106.50352790524191</v>
+        <v>106.50304065994945</v>
       </c>
       <c r="X90" s="22">
-        <v>107.85277460180687</v>
+        <v>107.84850280740864</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
@@ -28928,7 +28928,7 @@
     </row>
     <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -29010,7 +29010,7 @@
     </row>
     <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -29286,10 +29286,10 @@
         <v>53.970161413042426</v>
       </c>
       <c r="W106" s="22">
-        <v>55.736520502822231</v>
+        <v>55.746552809955588</v>
       </c>
       <c r="X106" s="22">
-        <v>59.219081741570513</v>
+        <v>59.315796289113329</v>
       </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
@@ -29432,10 +29432,10 @@
         <v>46.029838586957581</v>
       </c>
       <c r="W107" s="22">
-        <v>44.263479497177777</v>
+        <v>44.253447190044412</v>
       </c>
       <c r="X107" s="22">
-        <v>40.78091825842948</v>
+        <v>40.684203710886671</v>
       </c>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -30144,7 +30144,7 @@
     </row>
     <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -30420,10 +30420,10 @@
         <v>54.546808282788085</v>
       </c>
       <c r="W125" s="22">
-        <v>57.236062246379426</v>
+        <v>57.24595859531567</v>
       </c>
       <c r="X125" s="22">
-        <v>60.603900935846532</v>
+        <v>60.698662721903638</v>
       </c>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
@@ -30566,10 +30566,10 @@
         <v>45.453191717211915</v>
       </c>
       <c r="W126" s="22">
-        <v>42.763937753620567</v>
+        <v>42.75404140468433</v>
       </c>
       <c r="X126" s="22">
-        <v>39.396099064153461</v>
+        <v>39.301337278096369</v>
       </c>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE16804-9BB2-478F-8797-2D4702ECCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5715F-6BCF-4356-BCD5-D65763F7A7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$X$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$Y$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -607,13 +607,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23593,14 +23596,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
-    <col min="2" max="24" width="11" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.5703125" style="1"/>
+    <col min="2" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23615,7 +23618,7 @@
     </row>
     <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23628,7 +23631,7 @@
     </row>
     <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23661,6 +23664,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -23689,6 +23693,7 @@
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -23762,6 +23767,9 @@
       </c>
       <c r="X10" s="9">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23789,6 +23797,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
@@ -23863,7 +23872,9 @@
       <c r="X12" s="16">
         <v>216846.20981562923</v>
       </c>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="16">
+        <v>274606.97270291852</v>
+      </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -24009,7 +24020,9 @@
       <c r="X13" s="16">
         <v>148732.98389306018</v>
       </c>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="16">
+        <v>190874.02628313808</v>
+      </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -24107,7 +24120,7 @@
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -24253,7 +24266,9 @@
       <c r="X15" s="17">
         <v>365579.19370868942</v>
       </c>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="17">
+        <v>465480.9989860566</v>
+      </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
@@ -24351,6 +24366,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24379,6 +24395,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -24405,7 +24422,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
-      <c r="Y18" s="4"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
@@ -24503,7 +24520,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
-      <c r="Y19" s="4"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
@@ -24603,6 +24620,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -24631,10 +24649,11 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24659,6 +24678,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -24685,6 +24705,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -24713,10 +24734,11 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24741,6 +24763,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -24769,6 +24792,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -24795,6 +24819,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
@@ -24823,6 +24848,7 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -24896,6 +24922,9 @@
       </c>
       <c r="X29" s="19">
         <v>2022</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24923,6 +24952,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -24997,7 +25027,9 @@
       <c r="X31" s="16">
         <v>205753.14074313574</v>
       </c>
-      <c r="Y31" s="4"/>
+      <c r="Y31" s="16">
+        <v>248868.49905552098</v>
+      </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
@@ -25143,7 +25175,9 @@
       <c r="X32" s="16">
         <v>133221.61012709711</v>
       </c>
-      <c r="Y32" s="4"/>
+      <c r="Y32" s="16">
+        <v>160987.02377869451</v>
+      </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
@@ -25241,7 +25275,7 @@
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="4"/>
+      <c r="Y33" s="17"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
@@ -25387,7 +25421,9 @@
       <c r="X34" s="17">
         <v>338974.75087023282</v>
       </c>
-      <c r="Y34" s="4"/>
+      <c r="Y34" s="17">
+        <v>409855.52283421549</v>
+      </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
@@ -25485,6 +25521,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -25513,6 +25550,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -25539,7 +25577,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
-      <c r="Y37" s="4"/>
+      <c r="Y37" s="18"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
@@ -25637,7 +25675,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
-      <c r="Y38" s="4"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
@@ -25737,6 +25775,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -25765,10 +25804,11 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25793,6 +25833,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -25819,6 +25860,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -25847,10 +25889,11 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
     </row>
     <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25875,6 +25918,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -25903,6 +25947,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
     <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -25929,6 +25974,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
@@ -25957,6 +26003,7 @@
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
     </row>
     <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
@@ -26028,7 +26075,10 @@
       <c r="W48" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X48" s="21"/>
+      <c r="X48" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="21"/>
     </row>
     <row r="49" spans="1:91" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -26055,6 +26105,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
@@ -26126,8 +26177,10 @@
       <c r="W50" s="22">
         <v>38.399248466341902</v>
       </c>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="4"/>
+      <c r="X50" s="22">
+        <v>26.636740820325898</v>
+      </c>
+      <c r="Y50" s="22"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
@@ -26265,8 +26318,10 @@
       <c r="W51" s="22">
         <v>19.580426433785235</v>
       </c>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="4"/>
+      <c r="X51" s="22">
+        <v>28.333353696700897</v>
+      </c>
+      <c r="Y51" s="22"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
@@ -26359,7 +26414,7 @@
       <c r="V52" s="18"/>
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
-      <c r="Y52" s="4"/>
+      <c r="Y52" s="18"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
@@ -26497,8 +26552,10 @@
       <c r="W53" s="22">
         <v>30.071270996376001</v>
       </c>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="4"/>
+      <c r="X53" s="22">
+        <v>27.326994259135432</v>
+      </c>
+      <c r="Y53" s="22"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
@@ -26591,6 +26648,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
     </row>
     <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -26619,6 +26677,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
     </row>
     <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
@@ -26645,7 +26704,7 @@
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
-      <c r="Y56" s="4"/>
+      <c r="Y56" s="18"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
@@ -26738,7 +26797,7 @@
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
-      <c r="Y57" s="4"/>
+      <c r="Y57" s="18"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
@@ -26833,6 +26892,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -26861,10 +26921,11 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26889,6 +26950,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -26915,6 +26977,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -26943,10 +27006,11 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -26971,6 +27035,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -26999,6 +27064,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -27025,6 +27091,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
@@ -27053,6 +27120,7 @@
       <c r="V66" s="20"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
     </row>
     <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
@@ -27124,7 +27192,10 @@
       <c r="W67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X67" s="9"/>
+      <c r="X67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
@@ -27151,6 +27222,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
@@ -27222,8 +27294,10 @@
       <c r="W69" s="22">
         <v>36.19575186336462</v>
       </c>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="4"/>
+      <c r="X69" s="22">
+        <v>20.9548968033547</v>
+      </c>
+      <c r="Y69" s="22"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
@@ -27361,8 +27435,10 @@
       <c r="W70" s="22">
         <v>18.075399907399301</v>
       </c>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="4"/>
+      <c r="X70" s="22">
+        <v>20.841523852705592</v>
+      </c>
+      <c r="Y70" s="22"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
@@ -27455,7 +27531,7 @@
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
-      <c r="Y71" s="4"/>
+      <c r="Y71" s="18"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
@@ -27593,8 +27669,10 @@
       <c r="W72" s="22">
         <v>28.448569085436674</v>
       </c>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="4"/>
+      <c r="X72" s="22">
+        <v>20.910339717637981</v>
+      </c>
+      <c r="Y72" s="22"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -27687,6 +27765,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
     </row>
     <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -27715,6 +27794,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
     </row>
     <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
@@ -27741,7 +27821,7 @@
       <c r="V75" s="18"/>
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
-      <c r="Y75" s="4"/>
+      <c r="Y75" s="18"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
@@ -27835,7 +27915,7 @@
       <c r="V76" s="18"/>
       <c r="W76" s="18"/>
       <c r="X76" s="18"/>
-      <c r="Y76" s="4"/>
+      <c r="Y76" s="18"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
@@ -27935,10 +28015,11 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -27963,6 +28044,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
@@ -27989,6 +28071,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
@@ -28017,10 +28100,11 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -28045,6 +28129,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
@@ -28073,6 +28158,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
@@ -28099,6 +28185,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
@@ -28127,6 +28214,7 @@
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
       <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
     </row>
     <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
@@ -28200,6 +28288,9 @@
       </c>
       <c r="X85" s="19">
         <v>2022</v>
+      </c>
+      <c r="Y85" s="19">
+        <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28227,6 +28318,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
@@ -28301,7 +28393,9 @@
       <c r="X87" s="22">
         <v>105.39144580365954</v>
       </c>
-      <c r="Y87" s="4"/>
+      <c r="Y87" s="22">
+        <v>110.3421982874801</v>
+      </c>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -28447,7 +28541,9 @@
       <c r="X88" s="22">
         <v>111.64328651422603</v>
       </c>
-      <c r="Y88" s="4"/>
+      <c r="Y88" s="22">
+        <v>118.5648518762162</v>
+      </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
@@ -28545,7 +28641,7 @@
       <c r="V89" s="18"/>
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
-      <c r="Y89" s="4"/>
+      <c r="Y89" s="18"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
@@ -28691,7 +28787,9 @@
       <c r="X90" s="22">
         <v>107.84850280740864</v>
       </c>
-      <c r="Y90" s="4"/>
+      <c r="Y90" s="22">
+        <v>113.57197184197547</v>
+      </c>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -28789,6 +28887,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -28817,6 +28916,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
@@ -28843,6 +28943,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -28869,6 +28970,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -28897,6 +28999,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
@@ -28925,10 +29028,11 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -28953,6 +29057,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
@@ -28979,6 +29084,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -29007,10 +29113,11 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -29035,6 +29142,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
@@ -29063,6 +29171,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
@@ -29089,6 +29198,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
@@ -29117,6 +29227,7 @@
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
     </row>
     <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
@@ -29190,6 +29301,9 @@
       </c>
       <c r="X104" s="19">
         <v>2022</v>
+      </c>
+      <c r="Y104" s="19">
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29217,6 +29331,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
@@ -29291,7 +29406,9 @@
       <c r="X106" s="22">
         <v>59.315796289113329</v>
       </c>
-      <c r="Y106" s="4"/>
+      <c r="Y106" s="22">
+        <v>58.994238927278822</v>
+      </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
@@ -29437,7 +29554,9 @@
       <c r="X107" s="22">
         <v>40.684203710886671</v>
       </c>
-      <c r="Y107" s="4"/>
+      <c r="Y107" s="22">
+        <v>41.005761072721178</v>
+      </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
@@ -29535,7 +29654,7 @@
       <c r="V108" s="18"/>
       <c r="W108" s="18"/>
       <c r="X108" s="18"/>
-      <c r="Y108" s="4"/>
+      <c r="Y108" s="18"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
@@ -29681,7 +29800,9 @@
       <c r="X109" s="22">
         <v>100</v>
       </c>
-      <c r="Y109" s="4"/>
+      <c r="Y109" s="22">
+        <v>100</v>
+      </c>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
@@ -29779,6 +29900,7 @@
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
     </row>
     <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -29807,6 +29929,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
@@ -29833,7 +29956,7 @@
       <c r="V112" s="18"/>
       <c r="W112" s="18"/>
       <c r="X112" s="18"/>
-      <c r="Y112" s="4"/>
+      <c r="Y112" s="18"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
@@ -29931,7 +30054,7 @@
       <c r="V113" s="18"/>
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
-      <c r="Y113" s="4"/>
+      <c r="Y113" s="18"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
@@ -30031,6 +30154,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
@@ -30059,10 +30183,11 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -30087,6 +30212,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
@@ -30113,6 +30239,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
@@ -30141,10 +30268,11 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -30169,6 +30297,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -30197,6 +30326,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
     </row>
     <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
@@ -30223,6 +30353,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
     </row>
     <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
@@ -30251,6 +30382,7 @@
       <c r="V122" s="15"/>
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
     </row>
     <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
@@ -30324,6 +30456,9 @@
       </c>
       <c r="X123" s="19">
         <v>2022</v>
+      </c>
+      <c r="Y123" s="19">
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30351,6 +30486,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
     </row>
     <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
@@ -30425,7 +30561,9 @@
       <c r="X125" s="22">
         <v>60.698662721903638</v>
       </c>
-      <c r="Y125" s="4"/>
+      <c r="Y125" s="22">
+        <v>60.721030995155587</v>
+      </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
@@ -30571,7 +30709,9 @@
       <c r="X126" s="22">
         <v>39.301337278096369</v>
       </c>
-      <c r="Y126" s="4"/>
+      <c r="Y126" s="22">
+        <v>39.278969004844413</v>
+      </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
@@ -30669,7 +30809,7 @@
       <c r="V127" s="18"/>
       <c r="W127" s="18"/>
       <c r="X127" s="18"/>
-      <c r="Y127" s="4"/>
+      <c r="Y127" s="18"/>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
@@ -30815,7 +30955,9 @@
       <c r="X128" s="22">
         <v>100</v>
       </c>
-      <c r="Y128" s="4"/>
+      <c r="Y128" s="22">
+        <v>100</v>
+      </c>
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
@@ -30888,7 +31030,7 @@
       <c r="CQ128" s="4"/>
       <c r="CR128" s="4"/>
     </row>
-    <row r="129" spans="1:24" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -30913,8 +31055,9 @@
       <c r="V129" s="12"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
@@ -30941,6 +31084,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30948,9 +31092,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="23" man="1"/>
-    <brk id="76" max="23" man="1"/>
-    <brk id="94" max="23" man="1"/>
+    <brk id="38" max="24" man="1"/>
+    <brk id="76" max="24" man="1"/>
+    <brk id="94" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5715F-6BCF-4356-BCD5-D65763F7A7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E3AD5-B160-4625-85C1-F9002C8737BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -610,13 +610,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23594,52 +23594,52 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" style="2" customWidth="1"/>
     <col min="2" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.5703125" style="1"/>
+    <col min="26" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -23666,7 +23666,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="15" t="s">
         <v>5</v>
@@ -23695,7 +23695,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -23772,7 +23772,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -23799,7 +23799,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
@@ -23870,10 +23870,10 @@
         <v>156681.63824485309</v>
       </c>
       <c r="X12" s="16">
-        <v>216846.20981562923</v>
+        <v>217172.19066564032</v>
       </c>
       <c r="Y12" s="16">
-        <v>274606.97270291852</v>
+        <v>275162.18003221264</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
@@ -23947,7 +23947,7 @@
       <c r="CQ12" s="4"/>
       <c r="CR12" s="4"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -24018,10 +24018,10 @@
         <v>124379.03788160303</v>
       </c>
       <c r="X13" s="16">
-        <v>148732.98389306018</v>
+        <v>148946.06293222404</v>
       </c>
       <c r="Y13" s="16">
-        <v>190874.02628313808</v>
+        <v>190550.19360324935</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -24095,7 +24095,7 @@
       <c r="CQ13" s="4"/>
       <c r="CR13" s="4"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -24193,7 +24193,7 @@
       <c r="CQ14" s="4"/>
       <c r="CR14" s="4"/>
     </row>
-    <row r="15" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -24264,10 +24264,10 @@
         <v>281060.67612645612</v>
       </c>
       <c r="X15" s="17">
-        <v>365579.19370868942</v>
+        <v>366118.25359786436</v>
       </c>
       <c r="Y15" s="17">
-        <v>465480.9989860566</v>
+        <v>465712.37363546202</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -24341,7 +24341,7 @@
       <c r="CQ15" s="4"/>
       <c r="CR15" s="4"/>
     </row>
-    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24368,7 +24368,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
@@ -24397,7 +24397,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -24495,7 +24495,7 @@
       <c r="CQ18" s="4"/>
       <c r="CR18" s="4"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -24593,7 +24593,7 @@
       <c r="CQ19" s="4"/>
       <c r="CR19" s="4"/>
     </row>
-    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -24622,7 +24622,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -24651,9 +24651,9 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24680,7 +24680,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -24707,7 +24707,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -24736,9 +24736,9 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24765,7 +24765,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -24794,7 +24794,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -24821,7 +24821,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -24850,7 +24850,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
     </row>
-    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -24927,7 +24927,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -24954,7 +24954,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
@@ -25025,10 +25025,10 @@
         <v>151071.62883432151</v>
       </c>
       <c r="X31" s="16">
-        <v>205753.14074313574</v>
+        <v>206057.87672291818</v>
       </c>
       <c r="Y31" s="16">
-        <v>248868.49905552098</v>
+        <v>249372.98098385776</v>
       </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
@@ -25102,7 +25102,7 @@
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -25173,10 +25173,10 @@
         <v>112827.57477982395</v>
       </c>
       <c r="X32" s="16">
-        <v>133221.61012709711</v>
+        <v>133411.7673474692</v>
       </c>
       <c r="Y32" s="16">
-        <v>160987.02377869451</v>
+        <v>160716.51756657212</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
@@ -25250,7 +25250,7 @@
       <c r="CQ32" s="4"/>
       <c r="CR32" s="4"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -25348,7 +25348,7 @@
       <c r="CQ33" s="4"/>
       <c r="CR33" s="4"/>
     </row>
-    <row r="34" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
@@ -25419,10 +25419,10 @@
         <v>263899.20361414546</v>
       </c>
       <c r="X34" s="17">
-        <v>338974.75087023282</v>
+        <v>339469.64407038735</v>
       </c>
       <c r="Y34" s="17">
-        <v>409855.52283421549</v>
+        <v>410089.49855042988</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -25496,7 +25496,7 @@
       <c r="CQ34" s="4"/>
       <c r="CR34" s="4"/>
     </row>
-    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25523,7 +25523,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
@@ -25552,7 +25552,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -25650,7 +25650,7 @@
       <c r="CQ37" s="4"/>
       <c r="CR37" s="4"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -25748,7 +25748,7 @@
       <c r="CQ38" s="4"/>
       <c r="CR38" s="4"/>
     </row>
-    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -25777,7 +25777,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -25806,9 +25806,9 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25835,7 +25835,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -25862,7 +25862,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -25891,9 +25891,9 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25920,7 +25920,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
@@ -25949,7 +25949,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -25976,7 +25976,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="20" t="s">
         <v>5</v>
@@ -26005,7 +26005,7 @@
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
     </row>
-    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
@@ -26080,7 +26080,7 @@
       </c>
       <c r="Y48" s="21"/>
     </row>
-    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -26107,7 +26107,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>3</v>
       </c>
@@ -26175,10 +26175,10 @@
         <v>6.7489592534358849</v>
       </c>
       <c r="W50" s="22">
-        <v>38.399248466341902</v>
+        <v>38.607301467103667</v>
       </c>
       <c r="X50" s="22">
-        <v>26.636740820325898</v>
+        <v>26.702308978341563</v>
       </c>
       <c r="Y50" s="22"/>
       <c r="Z50" s="4"/>
@@ -26248,7 +26248,7 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="4"/>
     </row>
-    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -26316,10 +26316,10 @@
         <v>-0.64104760882727874</v>
       </c>
       <c r="W51" s="22">
-        <v>19.580426433785235</v>
+        <v>19.751740702485961</v>
       </c>
       <c r="X51" s="22">
-        <v>28.333353696700897</v>
+        <v>27.932346684421418</v>
       </c>
       <c r="Y51" s="22"/>
       <c r="Z51" s="4"/>
@@ -26389,7 +26389,7 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="4"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -26482,7 +26482,7 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="4"/>
     </row>
-    <row r="53" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
@@ -26550,10 +26550,10 @@
         <v>3.3473510231710719</v>
       </c>
       <c r="W53" s="22">
-        <v>30.071270996376001</v>
+        <v>30.263065841746823</v>
       </c>
       <c r="X53" s="22">
-        <v>27.326994259135432</v>
+        <v>27.2027190829413</v>
       </c>
       <c r="Y53" s="22"/>
       <c r="Z53" s="4"/>
@@ -26623,7 +26623,7 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="4"/>
     </row>
-    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26650,7 +26650,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
@@ -26679,7 +26679,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -26772,7 +26772,7 @@
       <c r="CL56" s="4"/>
       <c r="CM56" s="4"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -26865,7 +26865,7 @@
       <c r="CL57" s="4"/>
       <c r="CM57" s="4"/>
     </row>
-    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -26894,7 +26894,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -26923,9 +26923,9 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26952,7 +26952,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -26979,7 +26979,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -27008,9 +27008,9 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -27037,7 +27037,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -27066,7 +27066,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -27093,7 +27093,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="20" t="s">
         <v>5</v>
@@ -27122,7 +27122,7 @@
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
     </row>
-    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>4</v>
       </c>
@@ -27197,7 +27197,7 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -27224,7 +27224,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>3</v>
       </c>
@@ -27292,10 +27292,10 @@
         <v>7.0334385802999293</v>
       </c>
       <c r="W69" s="22">
-        <v>36.19575186336462</v>
+        <v>36.397468083765375</v>
       </c>
       <c r="X69" s="22">
-        <v>20.9548968033547</v>
+        <v>21.020843730805055</v>
       </c>
       <c r="Y69" s="22"/>
       <c r="Z69" s="4"/>
@@ -27365,7 +27365,7 @@
       <c r="CL69" s="4"/>
       <c r="CM69" s="4"/>
     </row>
-    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -27433,10 +27433,10 @@
         <v>-4.0694845138298348</v>
       </c>
       <c r="W70" s="22">
-        <v>18.075399907399301</v>
+        <v>18.243937803160293</v>
       </c>
       <c r="X70" s="22">
-        <v>20.841523852705592</v>
+        <v>20.466523127594911</v>
       </c>
       <c r="Y70" s="22"/>
       <c r="Z70" s="4"/>
@@ -27506,7 +27506,7 @@
       <c r="CL70" s="4"/>
       <c r="CM70" s="4"/>
     </row>
-    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -27599,7 +27599,7 @@
       <c r="CL71" s="4"/>
       <c r="CM71" s="4"/>
     </row>
-    <row r="72" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>1</v>
       </c>
@@ -27667,10 +27667,10 @@
         <v>1.9868056601105337</v>
       </c>
       <c r="W72" s="22">
-        <v>28.448569085436674</v>
+        <v>28.636100231183576</v>
       </c>
       <c r="X72" s="22">
-        <v>20.910339717637981</v>
+        <v>20.802995411689835</v>
       </c>
       <c r="Y72" s="22"/>
       <c r="Z72" s="4"/>
@@ -27740,7 +27740,7 @@
       <c r="CL72" s="4"/>
       <c r="CM72" s="4"/>
     </row>
-    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -27767,7 +27767,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
@@ -27796,7 +27796,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -27890,7 +27890,7 @@
       <c r="CM75" s="4"/>
       <c r="CN75" s="4"/>
     </row>
-    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -27988,7 +27988,7 @@
       <c r="CQ76" s="4"/>
       <c r="CR76" s="4"/>
     </row>
-    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -28017,9 +28017,9 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -28046,7 +28046,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -28073,7 +28073,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -28102,9 +28102,9 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -28131,7 +28131,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -28160,7 +28160,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -28187,7 +28187,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="15" t="s">
         <v>5</v>
@@ -28216,7 +28216,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
     </row>
-    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>4</v>
       </c>
@@ -28293,7 +28293,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -28320,7 +28320,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>3</v>
       </c>
@@ -28391,10 +28391,10 @@
         <v>103.71347648384992</v>
       </c>
       <c r="X87" s="22">
-        <v>105.39144580365954</v>
+        <v>105.39378262043695</v>
       </c>
       <c r="Y87" s="22">
-        <v>110.3421982874801</v>
+        <v>110.34161718186472</v>
       </c>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
@@ -28468,7 +28468,7 @@
       <c r="CQ87" s="4"/>
       <c r="CR87" s="4"/>
     </row>
-    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -28539,10 +28539,10 @@
         <v>110.23815598653171</v>
       </c>
       <c r="X88" s="22">
-        <v>111.64328651422603</v>
+        <v>111.64387212133693</v>
       </c>
       <c r="Y88" s="22">
-        <v>118.5648518762162</v>
+        <v>118.56291841584951</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -28616,7 +28616,7 @@
       <c r="CQ88" s="4"/>
       <c r="CR88" s="4"/>
     </row>
-    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -28714,7 +28714,7 @@
       <c r="CQ89" s="4"/>
       <c r="CR89" s="4"/>
     </row>
-    <row r="90" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>1</v>
       </c>
@@ -28785,10 +28785,10 @@
         <v>106.50304065994945</v>
       </c>
       <c r="X90" s="22">
-        <v>107.84850280740864</v>
+        <v>107.85007142551797</v>
       </c>
       <c r="Y90" s="22">
-        <v>113.57197184197547</v>
+        <v>113.56359411339376</v>
       </c>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
@@ -28862,7 +28862,7 @@
       <c r="CQ90" s="4"/>
       <c r="CR90" s="4"/>
     </row>
-    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -28889,7 +28889,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
@@ -28918,7 +28918,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -28945,7 +28945,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -28972,7 +28972,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -29001,7 +29001,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -29030,9 +29030,9 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -29059,7 +29059,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -29086,7 +29086,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -29115,9 +29115,9 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -29144,7 +29144,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -29200,7 +29200,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="15" t="s">
         <v>5</v>
@@ -29229,7 +29229,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
     </row>
-    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>4</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -29333,7 +29333,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="s">
         <v>3</v>
       </c>
@@ -29404,10 +29404,10 @@
         <v>55.746552809955588</v>
       </c>
       <c r="X106" s="22">
-        <v>59.315796289113329</v>
+        <v>59.317498794850344</v>
       </c>
       <c r="Y106" s="22">
-        <v>58.994238927278822</v>
+        <v>59.084146269129789</v>
       </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -29481,7 +29481,7 @@
       <c r="CQ106" s="4"/>
       <c r="CR106" s="4"/>
     </row>
-    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -29552,10 +29552,10 @@
         <v>44.253447190044412</v>
       </c>
       <c r="X107" s="22">
-        <v>40.684203710886671</v>
+        <v>40.682501205149656</v>
       </c>
       <c r="Y107" s="22">
-        <v>41.005761072721178</v>
+        <v>40.915853730870197</v>
       </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -29629,7 +29629,7 @@
       <c r="CQ107" s="4"/>
       <c r="CR107" s="4"/>
     </row>
-    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -29727,7 +29727,7 @@
       <c r="CQ108" s="4"/>
       <c r="CR108" s="4"/>
     </row>
-    <row r="109" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>1</v>
       </c>
@@ -29875,7 +29875,7 @@
       <c r="CQ109" s="4"/>
       <c r="CR109" s="4"/>
     </row>
-    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -29902,7 +29902,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
     </row>
-    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
@@ -29931,7 +29931,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -30029,7 +30029,7 @@
       <c r="CQ112" s="4"/>
       <c r="CR112" s="4"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -30127,7 +30127,7 @@
       <c r="CQ113" s="4"/>
       <c r="CR113" s="4"/>
     </row>
-    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -30156,7 +30156,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
@@ -30185,9 +30185,9 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -30214,7 +30214,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -30241,7 +30241,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -30270,9 +30270,9 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -30299,7 +30299,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -30328,7 +30328,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -30355,7 +30355,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="15" t="s">
         <v>5</v>
@@ -30384,7 +30384,7 @@
       <c r="X122" s="15"/>
       <c r="Y122" s="15"/>
     </row>
-    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>4</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -30488,7 +30488,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>3</v>
       </c>
@@ -30559,10 +30559,10 @@
         <v>57.24595859531567</v>
       </c>
       <c r="X125" s="22">
-        <v>60.698662721903638</v>
+        <v>60.69994190119489</v>
       </c>
       <c r="Y125" s="22">
-        <v>60.721030995155587</v>
+        <v>60.809404255737519</v>
       </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -30636,7 +30636,7 @@
       <c r="CQ125" s="4"/>
       <c r="CR125" s="4"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -30707,10 +30707,10 @@
         <v>42.75404140468433</v>
       </c>
       <c r="X126" s="22">
-        <v>39.301337278096369</v>
+        <v>39.300058098805124</v>
       </c>
       <c r="Y126" s="22">
-        <v>39.278969004844413</v>
+        <v>39.190595744262481</v>
       </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -30784,7 +30784,7 @@
       <c r="CQ126" s="4"/>
       <c r="CR126" s="4"/>
     </row>
-    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -30882,7 +30882,7 @@
       <c r="CQ127" s="4"/>
       <c r="CR127" s="4"/>
     </row>
-    <row r="128" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
         <v>1</v>
       </c>
@@ -31030,7 +31030,7 @@
       <c r="CQ128" s="4"/>
       <c r="CR128" s="4"/>
     </row>
-    <row r="129" spans="1:25" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31057,7 +31057,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E3AD5-B160-4625-85C1-F9002C8737BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064395D0-F1F6-4DAB-A039-49E4FEF18151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$Y$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$Z$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
@@ -761,10 +766,12 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{DA97B482-0E7B-4926-AB5D-C4A9567B809E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{3ED886F1-7D79-4496-9812-0D727E47C72A}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23594,52 +23601,52 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" style="2" customWidth="1"/>
-    <col min="2" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.5546875" style="1"/>
+    <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
+    <col min="2" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -23665,8 +23672,9 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="15" t="s">
         <v>5</v>
@@ -23694,8 +23702,9 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -23771,8 +23780,11 @@
       <c r="Y10" s="9">
         <v>2023</v>
       </c>
+      <c r="Z10" s="9">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -23798,8 +23810,9 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
@@ -23875,7 +23888,9 @@
       <c r="Y12" s="16">
         <v>275162.18003221264</v>
       </c>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="16">
+        <v>308797.37563193892</v>
+      </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -23947,7 +23962,7 @@
       <c r="CQ12" s="4"/>
       <c r="CR12" s="4"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -24023,7 +24038,9 @@
       <c r="Y13" s="16">
         <v>190550.19360324935</v>
       </c>
-      <c r="Z13" s="4"/>
+      <c r="Z13" s="16">
+        <v>219464.72271227243</v>
+      </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -24095,7 +24112,7 @@
       <c r="CQ13" s="4"/>
       <c r="CR13" s="4"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -24121,7 +24138,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -24193,7 +24210,7 @@
       <c r="CQ14" s="4"/>
       <c r="CR14" s="4"/>
     </row>
-    <row r="15" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -24269,7 +24286,9 @@
       <c r="Y15" s="17">
         <v>465712.37363546202</v>
       </c>
-      <c r="Z15" s="4"/>
+      <c r="Z15" s="17">
+        <v>528262.09834421135</v>
+      </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -24341,7 +24360,7 @@
       <c r="CQ15" s="4"/>
       <c r="CR15" s="4"/>
     </row>
-    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24367,8 +24386,9 @@
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
@@ -24396,8 +24416,9 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -24423,7 +24444,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -24495,7 +24516,7 @@
       <c r="CQ18" s="4"/>
       <c r="CR18" s="4"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -24521,7 +24542,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="18"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -24593,7 +24614,7 @@
       <c r="CQ19" s="4"/>
       <c r="CR19" s="4"/>
     </row>
-    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -24621,8 +24642,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -24650,10 +24672,11 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24679,8 +24702,9 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -24706,8 +24730,9 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -24735,10 +24760,11 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24764,8 +24790,9 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -24793,8 +24820,9 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -24820,8 +24848,9 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -24849,8 +24878,9 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -24926,8 +24956,11 @@
       <c r="Y29" s="19">
         <v>2023</v>
       </c>
+      <c r="Z29" s="19">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -24953,8 +24986,9 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
@@ -25030,7 +25064,9 @@
       <c r="Y31" s="16">
         <v>249372.98098385776</v>
       </c>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="16">
+        <v>270290.68210215983</v>
+      </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -25102,7 +25138,7 @@
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -25178,7 +25214,9 @@
       <c r="Y32" s="16">
         <v>160716.51756657212</v>
       </c>
-      <c r="Z32" s="4"/>
+      <c r="Z32" s="16">
+        <v>177533.24966581701</v>
+      </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -25250,7 +25288,7 @@
       <c r="CQ32" s="4"/>
       <c r="CR32" s="4"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -25276,7 +25314,7 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="4"/>
+      <c r="Z33" s="17"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -25348,7 +25386,7 @@
       <c r="CQ33" s="4"/>
       <c r="CR33" s="4"/>
     </row>
-    <row r="34" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
@@ -25424,7 +25462,9 @@
       <c r="Y34" s="17">
         <v>410089.49855042988</v>
       </c>
-      <c r="Z34" s="4"/>
+      <c r="Z34" s="17">
+        <v>447823.93176797684</v>
+      </c>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -25496,7 +25536,7 @@
       <c r="CQ34" s="4"/>
       <c r="CR34" s="4"/>
     </row>
-    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25522,8 +25562,9 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
@@ -25551,8 +25592,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -25578,7 +25620,7 @@
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
       <c r="Y37" s="18"/>
-      <c r="Z37" s="4"/>
+      <c r="Z37" s="18"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -25650,7 +25692,7 @@
       <c r="CQ37" s="4"/>
       <c r="CR37" s="4"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -25676,7 +25718,7 @@
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
-      <c r="Z38" s="4"/>
+      <c r="Z38" s="18"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -25748,7 +25790,7 @@
       <c r="CQ38" s="4"/>
       <c r="CR38" s="4"/>
     </row>
-    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -25776,8 +25818,9 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -25805,10 +25848,11 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25834,8 +25878,9 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -25861,8 +25906,9 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -25890,10 +25936,11 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25919,8 +25966,9 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
@@ -25948,8 +25996,9 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -25975,8 +26024,9 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="20" t="s">
         <v>5</v>
@@ -26004,8 +26054,9 @@
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
     </row>
-    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
@@ -26078,9 +26129,12 @@
       <c r="X48" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="21"/>
+      <c r="Y48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -26106,8 +26160,9 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>3</v>
       </c>
@@ -26180,8 +26235,10 @@
       <c r="X50" s="22">
         <v>26.702308978341563</v>
       </c>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="4"/>
+      <c r="Y50" s="22">
+        <v>12.223771303087034</v>
+      </c>
+      <c r="Z50" s="22"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -26248,7 +26305,7 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="4"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -26321,8 +26378,10 @@
       <c r="X51" s="22">
         <v>27.932346684421418</v>
       </c>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="4"/>
+      <c r="Y51" s="22">
+        <v>15.174232343855266</v>
+      </c>
+      <c r="Z51" s="22"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
@@ -26389,7 +26448,7 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="4"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -26415,7 +26474,7 @@
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
-      <c r="Z52" s="4"/>
+      <c r="Z52" s="18"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
@@ -26482,7 +26541,7 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="4"/>
     </row>
-    <row r="53" spans="1:91" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
@@ -26555,8 +26614,10 @@
       <c r="X53" s="22">
         <v>27.2027190829413</v>
       </c>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="4"/>
+      <c r="Y53" s="22">
+        <v>13.430977626914057</v>
+      </c>
+      <c r="Z53" s="22"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
@@ -26623,7 +26684,7 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="4"/>
     </row>
-    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26649,8 +26710,9 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
@@ -26678,8 +26740,9 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -26705,7 +26768,7 @@
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
       <c r="Y56" s="18"/>
-      <c r="Z56" s="4"/>
+      <c r="Z56" s="18"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -26772,7 +26835,7 @@
       <c r="CL56" s="4"/>
       <c r="CM56" s="4"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -26798,7 +26861,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
-      <c r="Z57" s="4"/>
+      <c r="Z57" s="18"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -26865,7 +26928,7 @@
       <c r="CL57" s="4"/>
       <c r="CM57" s="4"/>
     </row>
-    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -26893,8 +26956,9 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -26922,10 +26986,11 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26951,8 +27016,9 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -26978,8 +27044,9 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -27007,10 +27074,11 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -27036,8 +27104,9 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -27065,8 +27134,9 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -27092,8 +27162,9 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="20" t="s">
         <v>5</v>
@@ -27121,8 +27192,9 @@
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
     </row>
-    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>4</v>
       </c>
@@ -27195,9 +27267,12 @@
       <c r="X67" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y67" s="9"/>
+      <c r="Y67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -27223,8 +27298,9 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>3</v>
       </c>
@@ -27297,8 +27373,10 @@
       <c r="X69" s="22">
         <v>21.020843730805055</v>
       </c>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="4"/>
+      <c r="Y69" s="22">
+        <v>8.388118486523652</v>
+      </c>
+      <c r="Z69" s="22"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -27365,7 +27443,7 @@
       <c r="CL69" s="4"/>
       <c r="CM69" s="4"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -27438,8 +27516,10 @@
       <c r="X70" s="22">
         <v>20.466523127594911</v>
       </c>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="4"/>
+      <c r="Y70" s="22">
+        <v>10.463599108460684</v>
+      </c>
+      <c r="Z70" s="22"/>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -27506,7 +27586,7 @@
       <c r="CL70" s="4"/>
       <c r="CM70" s="4"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -27532,7 +27612,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
-      <c r="Z71" s="4"/>
+      <c r="Z71" s="18"/>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -27599,7 +27679,7 @@
       <c r="CL71" s="4"/>
       <c r="CM71" s="4"/>
     </row>
-    <row r="72" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>1</v>
       </c>
@@ -27672,8 +27752,10 @@
       <c r="X72" s="22">
         <v>20.802995411689835</v>
       </c>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="4"/>
+      <c r="Y72" s="22">
+        <v>9.2015117068174845</v>
+      </c>
+      <c r="Z72" s="22"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -27740,7 +27822,7 @@
       <c r="CL72" s="4"/>
       <c r="CM72" s="4"/>
     </row>
-    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -27766,8 +27848,9 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
     </row>
-    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
@@ -27795,8 +27878,9 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -27822,7 +27906,7 @@
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
       <c r="Y75" s="18"/>
-      <c r="Z75" s="4"/>
+      <c r="Z75" s="18"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
@@ -27890,7 +27974,7 @@
       <c r="CM75" s="4"/>
       <c r="CN75" s="4"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -27916,7 +28000,7 @@
       <c r="W76" s="18"/>
       <c r="X76" s="18"/>
       <c r="Y76" s="18"/>
-      <c r="Z76" s="4"/>
+      <c r="Z76" s="18"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
@@ -27988,7 +28072,7 @@
       <c r="CQ76" s="4"/>
       <c r="CR76" s="4"/>
     </row>
-    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -28016,10 +28100,11 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -28045,8 +28130,9 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -28072,8 +28158,9 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -28101,10 +28188,11 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -28130,8 +28218,9 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -28159,8 +28248,9 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -28186,8 +28276,9 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="15" t="s">
         <v>5</v>
@@ -28215,8 +28306,9 @@
       <c r="W84" s="15"/>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>4</v>
       </c>
@@ -28292,8 +28384,11 @@
       <c r="Y85" s="19">
         <v>2023</v>
       </c>
+      <c r="Z85" s="19">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -28319,8 +28414,9 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>3</v>
       </c>
@@ -28396,7 +28492,9 @@
       <c r="Y87" s="22">
         <v>110.34161718186472</v>
       </c>
-      <c r="Z87" s="4"/>
+      <c r="Z87" s="22">
+        <v>114.24640066401734</v>
+      </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
@@ -28468,7 +28566,7 @@
       <c r="CQ87" s="4"/>
       <c r="CR87" s="4"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -28544,7 +28642,9 @@
       <c r="Y88" s="22">
         <v>118.56291841584951</v>
       </c>
-      <c r="Z88" s="4"/>
+      <c r="Z88" s="22">
+        <v>123.61894074793645</v>
+      </c>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -28616,7 +28716,7 @@
       <c r="CQ88" s="4"/>
       <c r="CR88" s="4"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -28642,7 +28742,7 @@
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
       <c r="Y89" s="18"/>
-      <c r="Z89" s="4"/>
+      <c r="Z89" s="18"/>
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
@@ -28714,7 +28814,7 @@
       <c r="CQ89" s="4"/>
       <c r="CR89" s="4"/>
     </row>
-    <row r="90" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>1</v>
       </c>
@@ -28790,7 +28890,9 @@
       <c r="Y90" s="22">
         <v>113.56359411339376</v>
       </c>
-      <c r="Z90" s="4"/>
+      <c r="Z90" s="22">
+        <v>117.9620071349627</v>
+      </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -28862,7 +28964,7 @@
       <c r="CQ90" s="4"/>
       <c r="CR90" s="4"/>
     </row>
-    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -28888,8 +28990,9 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
@@ -28917,8 +29020,9 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -28944,8 +29048,9 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -28971,8 +29076,9 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -29000,8 +29106,9 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -29029,10 +29136,11 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -29058,8 +29166,9 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -29085,8 +29194,9 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -29114,10 +29224,11 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -29143,8 +29254,9 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -29172,8 +29284,9 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -29199,8 +29312,9 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="15" t="s">
         <v>5</v>
@@ -29228,8 +29342,9 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
     </row>
-    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>4</v>
       </c>
@@ -29305,8 +29420,11 @@
       <c r="Y104" s="19">
         <v>2023</v>
       </c>
+      <c r="Z104" s="19">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -29332,8 +29450,9 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>3</v>
       </c>
@@ -29409,7 +29528,9 @@
       <c r="Y106" s="22">
         <v>59.084146269129789</v>
       </c>
-      <c r="Z106" s="4"/>
+      <c r="Z106" s="22">
+        <v>58.455334312235486</v>
+      </c>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -29481,7 +29602,7 @@
       <c r="CQ106" s="4"/>
       <c r="CR106" s="4"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -29557,7 +29678,9 @@
       <c r="Y107" s="22">
         <v>40.915853730870197</v>
       </c>
-      <c r="Z107" s="4"/>
+      <c r="Z107" s="22">
+        <v>41.544665687764521</v>
+      </c>
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
@@ -29629,7 +29752,7 @@
       <c r="CQ107" s="4"/>
       <c r="CR107" s="4"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -29655,7 +29778,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="18"/>
       <c r="Y108" s="18"/>
-      <c r="Z108" s="4"/>
+      <c r="Z108" s="18"/>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -29727,7 +29850,7 @@
       <c r="CQ108" s="4"/>
       <c r="CR108" s="4"/>
     </row>
-    <row r="109" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>1</v>
       </c>
@@ -29803,7 +29926,9 @@
       <c r="Y109" s="22">
         <v>100</v>
       </c>
-      <c r="Z109" s="4"/>
+      <c r="Z109" s="22">
+        <v>100</v>
+      </c>
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
@@ -29875,7 +30000,7 @@
       <c r="CQ109" s="4"/>
       <c r="CR109" s="4"/>
     </row>
-    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -29901,8 +30026,9 @@
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
     </row>
-    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
@@ -29930,8 +30056,9 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -29957,7 +30084,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="18"/>
       <c r="Y112" s="18"/>
-      <c r="Z112" s="4"/>
+      <c r="Z112" s="18"/>
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
@@ -30029,7 +30156,7 @@
       <c r="CQ112" s="4"/>
       <c r="CR112" s="4"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -30055,7 +30182,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
       <c r="Y113" s="18"/>
-      <c r="Z113" s="4"/>
+      <c r="Z113" s="18"/>
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -30127,7 +30254,7 @@
       <c r="CQ113" s="4"/>
       <c r="CR113" s="4"/>
     </row>
-    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -30155,8 +30282,9 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
@@ -30184,10 +30312,11 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -30213,8 +30342,9 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -30240,8 +30370,9 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -30269,10 +30400,11 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -30298,8 +30430,9 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -30327,8 +30460,9 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -30354,8 +30488,9 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="15" t="s">
         <v>5</v>
@@ -30383,8 +30518,9 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
       <c r="Y122" s="15"/>
+      <c r="Z122" s="15"/>
     </row>
-    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>4</v>
       </c>
@@ -30460,8 +30596,11 @@
       <c r="Y123" s="19">
         <v>2023</v>
       </c>
+      <c r="Z123" s="19">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -30487,8 +30626,9 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>3</v>
       </c>
@@ -30564,7 +30704,9 @@
       <c r="Y125" s="22">
         <v>60.809404255737519</v>
       </c>
-      <c r="Z125" s="4"/>
+      <c r="Z125" s="22">
+        <v>60.356462200461593</v>
+      </c>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -30636,7 +30778,7 @@
       <c r="CQ125" s="4"/>
       <c r="CR125" s="4"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -30712,7 +30854,9 @@
       <c r="Y126" s="22">
         <v>39.190595744262481</v>
       </c>
-      <c r="Z126" s="4"/>
+      <c r="Z126" s="22">
+        <v>39.643537799538414</v>
+      </c>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -30784,7 +30928,7 @@
       <c r="CQ126" s="4"/>
       <c r="CR126" s="4"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -30810,7 +30954,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="18"/>
       <c r="Y127" s="18"/>
-      <c r="Z127" s="4"/>
+      <c r="Z127" s="18"/>
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -30882,7 +31026,7 @@
       <c r="CQ127" s="4"/>
       <c r="CR127" s="4"/>
     </row>
-    <row r="128" spans="1:96" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:96" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>1</v>
       </c>
@@ -30958,7 +31102,9 @@
       <c r="Y128" s="22">
         <v>100</v>
       </c>
-      <c r="Z128" s="4"/>
+      <c r="Z128" s="22">
+        <v>100</v>
+      </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
@@ -31030,7 +31176,7 @@
       <c r="CQ128" s="4"/>
       <c r="CR128" s="4"/>
     </row>
-    <row r="129" spans="1:25" s="3" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31056,8 +31202,9 @@
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
     </row>
-    <row r="130" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
@@ -31085,6 +31232,7 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -31092,9 +31240,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="24" man="1"/>
-    <brk id="76" max="24" man="1"/>
-    <brk id="94" max="24" man="1"/>
+    <brk id="38" max="25" man="1"/>
+    <brk id="76" max="25" man="1"/>
+    <brk id="94" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064395D0-F1F6-4DAB-A039-49E4FEF18151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA19857-EF09-486B-9315-AA169759CA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23603,7 +23603,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23886,10 +23886,10 @@
         <v>217172.19066564032</v>
       </c>
       <c r="Y12" s="16">
-        <v>275162.18003221264</v>
+        <v>275153.91537396394</v>
       </c>
       <c r="Z12" s="16">
-        <v>308797.37563193892</v>
+        <v>309994.43566739064</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -24036,10 +24036,10 @@
         <v>148946.06293222404</v>
       </c>
       <c r="Y13" s="16">
-        <v>190550.19360324935</v>
+        <v>189348.14360676933</v>
       </c>
       <c r="Z13" s="16">
-        <v>219464.72271227243</v>
+        <v>217474.05199936754</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -24284,10 +24284,10 @@
         <v>366118.25359786436</v>
       </c>
       <c r="Y15" s="17">
-        <v>465712.37363546202</v>
+        <v>464502.05898073327</v>
       </c>
       <c r="Z15" s="17">
-        <v>528262.09834421135</v>
+        <v>527468.48766675824</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
@@ -25062,10 +25062,10 @@
         <v>206057.87672291818</v>
       </c>
       <c r="Y31" s="16">
-        <v>249372.98098385776</v>
+        <v>249366.63727548483</v>
       </c>
       <c r="Z31" s="16">
-        <v>270290.68210215983</v>
+        <v>271329.21966959495</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
@@ -25212,10 +25212,10 @@
         <v>133411.7673474692</v>
       </c>
       <c r="Y32" s="16">
-        <v>160716.51756657212</v>
+        <v>159704.01135621703</v>
       </c>
       <c r="Z32" s="16">
-        <v>177533.24966581701</v>
+        <v>175847.14787084068</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
@@ -25460,10 +25460,10 @@
         <v>339469.64407038735</v>
       </c>
       <c r="Y34" s="17">
-        <v>410089.49855042988</v>
+        <v>409070.64863170183</v>
       </c>
       <c r="Z34" s="17">
-        <v>447823.93176797684</v>
+        <v>447176.36754043563</v>
       </c>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
@@ -26233,10 +26233,10 @@
         <v>38.607301467103667</v>
       </c>
       <c r="X50" s="22">
-        <v>26.702308978341563</v>
+        <v>26.69850339981727</v>
       </c>
       <c r="Y50" s="22">
-        <v>12.223771303087034</v>
+        <v>12.662193175072446</v>
       </c>
       <c r="Z50" s="22"/>
       <c r="AA50" s="4"/>
@@ -26376,10 +26376,10 @@
         <v>19.751740702485961</v>
       </c>
       <c r="X51" s="22">
-        <v>27.932346684421418</v>
+        <v>27.12530957795758</v>
       </c>
       <c r="Y51" s="22">
-        <v>15.174232343855266</v>
+        <v>14.854071371837136</v>
       </c>
       <c r="Z51" s="22"/>
       <c r="AA51" s="4"/>
@@ -26612,10 +26612,10 @@
         <v>30.263065841746823</v>
       </c>
       <c r="X53" s="22">
-        <v>27.2027190829413</v>
+        <v>26.872138828382859</v>
       </c>
       <c r="Y53" s="22">
-        <v>13.430977626914057</v>
+        <v>13.555683439637178</v>
       </c>
       <c r="Z53" s="22"/>
       <c r="AA53" s="4"/>
@@ -27371,10 +27371,10 @@
         <v>36.397468083765375</v>
       </c>
       <c r="X69" s="22">
-        <v>21.020843730805055</v>
+        <v>21.017765125670508</v>
       </c>
       <c r="Y69" s="22">
-        <v>8.388118486523652</v>
+        <v>8.8073459361154249</v>
       </c>
       <c r="Z69" s="22"/>
       <c r="AA69" s="4"/>
@@ -27514,10 +27514,10 @@
         <v>18.243937803160293</v>
       </c>
       <c r="X70" s="22">
-        <v>20.466523127594911</v>
+        <v>19.707589916165375</v>
       </c>
       <c r="Y70" s="22">
-        <v>10.463599108460684</v>
+        <v>10.108159699643778</v>
       </c>
       <c r="Z70" s="22"/>
       <c r="AA70" s="4"/>
@@ -27750,10 +27750,10 @@
         <v>28.636100231183576</v>
       </c>
       <c r="X72" s="22">
-        <v>20.802995411689835</v>
+        <v>20.50286550713885</v>
       </c>
       <c r="Y72" s="22">
-        <v>9.2015117068174845</v>
+        <v>9.3151926289978064</v>
       </c>
       <c r="Z72" s="22"/>
       <c r="AA72" s="4"/>
@@ -28490,10 +28490,10 @@
         <v>105.39378262043695</v>
       </c>
       <c r="Y87" s="22">
-        <v>110.34161718186472</v>
+        <v>110.34110993363997</v>
       </c>
       <c r="Z87" s="22">
-        <v>114.24640066401734</v>
+        <v>114.25029565370046</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -28640,10 +28640,10 @@
         <v>111.64387212133693</v>
       </c>
       <c r="Y88" s="22">
-        <v>118.56291841584951</v>
+        <v>118.56192089278935</v>
       </c>
       <c r="Z88" s="22">
-        <v>123.61894074793645</v>
+        <v>123.67220886579391</v>
       </c>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
@@ -28888,10 +28888,10 @@
         <v>107.85007142551797</v>
       </c>
       <c r="Y90" s="22">
-        <v>113.56359411339376</v>
+        <v>113.55057140727247</v>
       </c>
       <c r="Z90" s="22">
-        <v>117.9620071349627</v>
+        <v>117.9553585463262</v>
       </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -29526,10 +29526,10 @@
         <v>59.317498794850344</v>
       </c>
       <c r="Y106" s="22">
-        <v>59.084146269129789</v>
+        <v>59.236317698513552</v>
       </c>
       <c r="Z106" s="22">
-        <v>58.455334312235486</v>
+        <v>58.770228537943972</v>
       </c>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
@@ -29676,10 +29676,10 @@
         <v>40.682501205149656</v>
       </c>
       <c r="Y107" s="22">
-        <v>40.915853730870197</v>
+        <v>40.763682301486455</v>
       </c>
       <c r="Z107" s="22">
-        <v>41.544665687764521</v>
+        <v>41.229771462056014</v>
       </c>
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
@@ -30702,10 +30702,10 @@
         <v>60.69994190119489</v>
       </c>
       <c r="Y125" s="22">
-        <v>60.809404255737519</v>
+        <v>60.959308156082557</v>
       </c>
       <c r="Z125" s="22">
-        <v>60.356462200461593</v>
+        <v>60.676108883383726</v>
       </c>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
@@ -30852,10 +30852,10 @@
         <v>39.300058098805124</v>
       </c>
       <c r="Y126" s="22">
-        <v>39.190595744262481</v>
+        <v>39.04069184391745</v>
       </c>
       <c r="Z126" s="22">
-        <v>39.643537799538414</v>
+        <v>39.323891116616267</v>
       </c>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA19857-EF09-486B-9315-AA169759CA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33DB20-7B03-45FB-A774-BDB7099E2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$Z$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$AA$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,7 +619,10 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>As of January 2026</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23603,14 +23606,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
-    <col min="2" max="26" width="11" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.5703125" style="1"/>
+    <col min="2" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23673,6 +23676,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -23703,6 +23707,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -23782,6 +23787,9 @@
       </c>
       <c r="Z10" s="9">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23811,6 +23819,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
@@ -23891,7 +23900,9 @@
       <c r="Z12" s="16">
         <v>309994.43566739064</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="16">
+        <v>341428.31305611547</v>
+      </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -24041,7 +24052,9 @@
       <c r="Z13" s="16">
         <v>217474.05199936754</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="16">
+        <v>233916.45830123394</v>
+      </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -24139,7 +24152,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="17"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -24289,7 +24302,9 @@
       <c r="Z15" s="17">
         <v>527468.48766675824</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="17">
+        <v>575344.77135734935</v>
+      </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -24387,6 +24402,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24417,6 +24433,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -24445,7 +24462,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="4"/>
+      <c r="AA18" s="18"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -24543,7 +24560,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
-      <c r="AA19" s="4"/>
+      <c r="AA19" s="18"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -24643,6 +24660,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -24673,6 +24691,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -24703,6 +24722,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -24731,6 +24751,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -24761,6 +24782,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -24791,6 +24813,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -24821,6 +24844,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -24849,6 +24873,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
@@ -24879,6 +24904,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -24958,6 +24984,9 @@
       </c>
       <c r="Z29" s="19">
         <v>2024</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24987,6 +25016,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -25067,7 +25097,9 @@
       <c r="Z31" s="16">
         <v>271329.21966959495</v>
       </c>
-      <c r="AA31" s="4"/>
+      <c r="AA31" s="16">
+        <v>292892.99966398528</v>
+      </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -25217,7 +25249,9 @@
       <c r="Z32" s="16">
         <v>175847.14787084068</v>
       </c>
-      <c r="AA32" s="4"/>
+      <c r="AA32" s="16">
+        <v>184060.49284676419</v>
+      </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -25315,7 +25349,7 @@
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
-      <c r="AA33" s="4"/>
+      <c r="AA33" s="17"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -25465,7 +25499,9 @@
       <c r="Z34" s="17">
         <v>447176.36754043563</v>
       </c>
-      <c r="AA34" s="4"/>
+      <c r="AA34" s="17">
+        <v>476953.49251074949</v>
+      </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -25563,6 +25599,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -25593,6 +25630,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -25621,7 +25659,7 @@
       <c r="X37" s="18"/>
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
-      <c r="AA37" s="4"/>
+      <c r="AA37" s="18"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -25719,7 +25757,7 @@
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
-      <c r="AA38" s="4"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -25819,6 +25857,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -25849,6 +25888,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -25879,6 +25919,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -25907,6 +25948,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -25937,6 +25979,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -25967,6 +26010,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -25997,6 +26041,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -26025,6 +26070,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
@@ -26055,6 +26101,7 @@
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
     </row>
     <row r="48" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
@@ -26132,7 +26179,10 @@
       <c r="Y48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="21"/>
+      <c r="Z48" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" s="21"/>
     </row>
     <row r="49" spans="1:91" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -26161,6 +26211,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
@@ -26238,8 +26289,10 @@
       <c r="Y50" s="22">
         <v>12.662193175072446</v>
       </c>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="4"/>
+      <c r="Z50" s="22">
+        <v>10.140142458057497</v>
+      </c>
+      <c r="AA50" s="22"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -26381,8 +26434,10 @@
       <c r="Y51" s="22">
         <v>14.854071371837136</v>
       </c>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="4"/>
+      <c r="Z51" s="22">
+        <v>7.5606290270961836</v>
+      </c>
+      <c r="AA51" s="22"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -26475,7 +26530,7 @@
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
-      <c r="AA52" s="4"/>
+      <c r="AA52" s="18"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -26617,8 +26672,10 @@
       <c r="Y53" s="22">
         <v>13.555683439637178</v>
       </c>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="4"/>
+      <c r="Z53" s="22">
+        <v>9.0766149656390667</v>
+      </c>
+      <c r="AA53" s="22"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -26711,6 +26768,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -26741,6 +26799,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
@@ -26769,7 +26828,7 @@
       <c r="X56" s="18"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
-      <c r="AA56" s="4"/>
+      <c r="AA56" s="18"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -26862,7 +26921,7 @@
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
-      <c r="AA57" s="4"/>
+      <c r="AA57" s="18"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -26957,6 +27016,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -26987,6 +27047,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -27017,6 +27078,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -27045,6 +27107,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -27075,6 +27138,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -27105,6 +27169,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
     </row>
     <row r="64" spans="1:91" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -27135,6 +27200,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
     </row>
     <row r="65" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
@@ -27163,6 +27229,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
     </row>
     <row r="66" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
@@ -27193,6 +27260,7 @@
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
     </row>
     <row r="67" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
@@ -27270,7 +27338,10 @@
       <c r="Y67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="9"/>
+      <c r="Z67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA67" s="9"/>
     </row>
     <row r="68" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
@@ -27299,6 +27370,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
     </row>
     <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
@@ -27376,8 +27448,10 @@
       <c r="Y69" s="22">
         <v>8.8073459361154249</v>
       </c>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="4"/>
+      <c r="Z69" s="22">
+        <v>7.9474595550929337</v>
+      </c>
+      <c r="AA69" s="22"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -27519,8 +27593,10 @@
       <c r="Y70" s="22">
         <v>10.108159699643778</v>
       </c>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="4"/>
+      <c r="Z70" s="22">
+        <v>4.6707297078006462</v>
+      </c>
+      <c r="AA70" s="22"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -27613,7 +27689,7 @@
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
-      <c r="AA71" s="4"/>
+      <c r="AA71" s="18"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -27755,8 +27831,10 @@
       <c r="Y72" s="22">
         <v>9.3151926289978064</v>
       </c>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="4"/>
+      <c r="Z72" s="22">
+        <v>6.658921877758047</v>
+      </c>
+      <c r="AA72" s="22"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -27849,6 +27927,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
     </row>
     <row r="74" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -27879,6 +27958,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
     </row>
     <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
@@ -27907,7 +27987,7 @@
       <c r="X75" s="18"/>
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
-      <c r="AA75" s="4"/>
+      <c r="AA75" s="18"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -28001,7 +28081,7 @@
       <c r="X76" s="18"/>
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
-      <c r="AA76" s="4"/>
+      <c r="AA76" s="18"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -28101,6 +28181,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
     </row>
     <row r="78" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
@@ -28131,6 +28212,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
     </row>
     <row r="79" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
@@ -28159,6 +28241,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
     </row>
     <row r="80" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
@@ -28189,6 +28272,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
     </row>
     <row r="81" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -28219,6 +28303,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
     </row>
     <row r="82" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
@@ -28249,6 +28334,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
     </row>
     <row r="83" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
@@ -28277,6 +28363,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
     </row>
     <row r="84" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
@@ -28307,6 +28394,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
     </row>
     <row r="85" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
@@ -28386,6 +28474,9 @@
       </c>
       <c r="Z85" s="19">
         <v>2024</v>
+      </c>
+      <c r="AA85" s="19">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28415,6 +28506,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
     </row>
     <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
@@ -28495,7 +28587,9 @@
       <c r="Z87" s="22">
         <v>114.25029565370046</v>
       </c>
-      <c r="AA87" s="4"/>
+      <c r="AA87" s="22">
+        <v>116.57100492255232</v>
+      </c>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -28645,7 +28739,9 @@
       <c r="Z88" s="22">
         <v>123.67220886579391</v>
       </c>
-      <c r="AA88" s="4"/>
+      <c r="AA88" s="22">
+        <v>127.08672821819309</v>
+      </c>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -28743,7 +28839,7 @@
       <c r="X89" s="18"/>
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
-      <c r="AA89" s="4"/>
+      <c r="AA89" s="18"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -28893,7 +28989,9 @@
       <c r="Z90" s="22">
         <v>117.9553585463262</v>
       </c>
-      <c r="AA90" s="4"/>
+      <c r="AA90" s="22">
+        <v>120.62911382169663</v>
+      </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -28991,6 +29089,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
     </row>
     <row r="92" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -29021,6 +29120,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
@@ -29049,6 +29149,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
     </row>
     <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -29077,6 +29178,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
     </row>
     <row r="95" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -29107,6 +29209,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
     </row>
     <row r="96" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
@@ -29137,6 +29240,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
     </row>
     <row r="97" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
@@ -29167,6 +29271,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
     </row>
     <row r="98" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
@@ -29195,6 +29300,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
     </row>
     <row r="99" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -29225,6 +29331,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
     </row>
     <row r="100" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
@@ -29255,6 +29362,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
     </row>
     <row r="101" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
@@ -29285,6 +29393,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
     </row>
     <row r="102" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
@@ -29313,6 +29422,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
     </row>
     <row r="103" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
@@ -29343,6 +29453,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
       <c r="Z103" s="15"/>
+      <c r="AA103" s="15"/>
     </row>
     <row r="104" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
@@ -29422,6 +29533,9 @@
       </c>
       <c r="Z104" s="19">
         <v>2024</v>
+      </c>
+      <c r="AA104" s="19">
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29451,6 +29565,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
     </row>
     <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
@@ -29531,7 +29646,9 @@
       <c r="Z106" s="22">
         <v>58.770228537943972</v>
       </c>
-      <c r="AA106" s="4"/>
+      <c r="AA106" s="22">
+        <v>59.343254697634642</v>
+      </c>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
@@ -29681,7 +29798,9 @@
       <c r="Z107" s="22">
         <v>41.229771462056014</v>
       </c>
-      <c r="AA107" s="4"/>
+      <c r="AA107" s="22">
+        <v>40.65674530236538</v>
+      </c>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
@@ -29779,7 +29898,7 @@
       <c r="X108" s="18"/>
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
-      <c r="AA108" s="4"/>
+      <c r="AA108" s="18"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
@@ -29929,7 +30048,9 @@
       <c r="Z109" s="22">
         <v>100</v>
       </c>
-      <c r="AA109" s="4"/>
+      <c r="AA109" s="22">
+        <v>100</v>
+      </c>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
@@ -30027,6 +30148,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
     </row>
     <row r="111" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -30057,6 +30179,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
     </row>
     <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
@@ -30085,7 +30208,7 @@
       <c r="X112" s="18"/>
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
-      <c r="AA112" s="4"/>
+      <c r="AA112" s="18"/>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
@@ -30183,7 +30306,7 @@
       <c r="X113" s="18"/>
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
-      <c r="AA113" s="4"/>
+      <c r="AA113" s="18"/>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
@@ -30283,6 +30406,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
     </row>
     <row r="115" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
@@ -30313,6 +30437,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
     </row>
     <row r="116" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
@@ -30343,6 +30468,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
     </row>
     <row r="117" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
@@ -30371,6 +30497,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
     </row>
     <row r="118" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
@@ -30401,6 +30528,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
     </row>
     <row r="119" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
@@ -30431,6 +30559,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
     </row>
     <row r="120" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -30461,6 +30590,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
     </row>
     <row r="121" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
@@ -30489,6 +30619,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
     </row>
     <row r="122" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
@@ -30519,6 +30650,7 @@
       <c r="X122" s="15"/>
       <c r="Y122" s="15"/>
       <c r="Z122" s="15"/>
+      <c r="AA122" s="15"/>
     </row>
     <row r="123" spans="1:96" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
@@ -30598,6 +30730,9 @@
       </c>
       <c r="Z123" s="19">
         <v>2024</v>
+      </c>
+      <c r="AA123" s="19">
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="3" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30627,6 +30762,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
     </row>
     <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
@@ -30707,7 +30843,9 @@
       <c r="Z125" s="22">
         <v>60.676108883383726</v>
       </c>
-      <c r="AA125" s="4"/>
+      <c r="AA125" s="22">
+        <v>61.409131972628153</v>
+      </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
@@ -30857,7 +30995,9 @@
       <c r="Z126" s="22">
         <v>39.323891116616267</v>
       </c>
-      <c r="AA126" s="4"/>
+      <c r="AA126" s="22">
+        <v>38.590868027371847</v>
+      </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
       <c r="AD126" s="4"/>
@@ -30955,7 +31095,7 @@
       <c r="X127" s="18"/>
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
-      <c r="AA127" s="4"/>
+      <c r="AA127" s="18"/>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
       <c r="AD127" s="4"/>
@@ -31105,7 +31245,9 @@
       <c r="Z128" s="22">
         <v>100</v>
       </c>
-      <c r="AA128" s="4"/>
+      <c r="AA128" s="22">
+        <v>100</v>
+      </c>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
       <c r="AD128" s="4"/>
@@ -31176,7 +31318,7 @@
       <c r="CQ128" s="4"/>
       <c r="CR128" s="4"/>
     </row>
-    <row r="129" spans="1:26" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31203,8 +31345,9 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
     </row>
-    <row r="130" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
@@ -31233,6 +31376,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -31240,9 +31384,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="25" man="1"/>
-    <brk id="76" max="25" man="1"/>
-    <brk id="94" max="25" man="1"/>
+    <brk id="38" max="26" man="1"/>
+    <brk id="76" max="26" man="1"/>
+    <brk id="94" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>